--- a/spec/support/validRoNoRoomsSpreadsheet.xlsx
+++ b/spec/support/validRoNoRoomsSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F146B31-F864-1E40-8E8E-AB95EA9575C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A4F55-85AF-5849-839B-46DDB383A4EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="23160" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16420" yWindow="1340" windowWidth="23160" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="124">
   <si>
     <t>Example</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>NVHQ</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -498,6 +501,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -549,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -652,21 +660,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1035,29 +1028,29 @@
     <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,9 +1061,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,47 +1078,46 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1138,15 +1130,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2339,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2:BF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2351,27 +2345,29 @@
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="254" width="11" style="1" customWidth="1"/>
+    <col min="7" max="57" width="11" style="1" customWidth="1"/>
+    <col min="58" max="58" width="11" style="40" customWidth="1"/>
+    <col min="59" max="254" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2416,8 +2412,9 @@
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
       <c r="BE1" s="5"/>
-    </row>
-    <row r="2" spans="1:57" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF1" s="5"/>
+    </row>
+    <row r="2" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2589,8 +2586,11 @@
       <c r="BE2" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:57" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF2" s="86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2762,1468 +2762,1491 @@
       <c r="BE3" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF3" s="85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="15">
         <v>43466</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>44316</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="66">
         <v>44314</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="63">
         <v>44347</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="63">
         <v>44292</v>
       </c>
-      <c r="R4" s="64">
+      <c r="R4" s="63">
         <v>44288</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="64" t="s">
+      <c r="T4" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="63">
         <v>44312</v>
       </c>
-      <c r="V4" s="68">
+      <c r="V4" s="67">
         <v>44358</v>
       </c>
-      <c r="W4" s="64">
+      <c r="W4" s="63">
         <v>44361</v>
       </c>
-      <c r="X4" s="64">
+      <c r="X4" s="63">
         <v>44329</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="63">
         <v>44312</v>
       </c>
-      <c r="Z4" s="69" t="s">
+      <c r="Z4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AA4" s="64">
+      <c r="AA4" s="63">
         <v>44293</v>
       </c>
-      <c r="AB4" s="69" t="s">
+      <c r="AB4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AC4" s="69" t="s">
+      <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AD4" s="69" t="s">
+      <c r="AD4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AE4" s="68">
+      <c r="AE4" s="67">
         <v>44344</v>
       </c>
-      <c r="AF4" s="64">
+      <c r="AF4" s="63">
         <v>44315</v>
       </c>
-      <c r="AG4" s="70">
+      <c r="AG4" s="69">
         <v>44287</v>
       </c>
-      <c r="AH4" s="64">
+      <c r="AH4" s="63">
         <v>44314</v>
       </c>
-      <c r="AI4" s="64">
+      <c r="AI4" s="63">
         <v>44293</v>
       </c>
-      <c r="AJ4" s="69" t="s">
+      <c r="AJ4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AK4" s="64" t="s">
+      <c r="AK4" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="AL4" s="64">
+      <c r="AL4" s="63">
         <v>44327</v>
       </c>
-      <c r="AM4" s="69" t="s">
+      <c r="AM4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AN4" s="69" t="s">
+      <c r="AN4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="69" t="s">
+      <c r="AO4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AP4" s="64">
+      <c r="AP4" s="63">
         <v>44287</v>
       </c>
-      <c r="AQ4" s="69" t="s">
+      <c r="AQ4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AR4" s="64" t="s">
+      <c r="AR4" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="AS4" s="64">
+      <c r="AS4" s="63">
         <v>44315</v>
       </c>
-      <c r="AT4" s="64">
+      <c r="AT4" s="63">
         <v>44340</v>
       </c>
-      <c r="AU4" s="69" t="s">
+      <c r="AU4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AV4" s="64">
+      <c r="AV4" s="63">
         <v>44291</v>
       </c>
-      <c r="AW4" s="69" t="s">
+      <c r="AW4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="AX4" s="64">
+      <c r="AX4" s="63">
         <v>44343</v>
       </c>
-      <c r="AY4" s="64">
+      <c r="AY4" s="63">
         <v>44288</v>
       </c>
-      <c r="AZ4" s="64">
+      <c r="AZ4" s="63">
         <v>44294</v>
       </c>
-      <c r="BA4" s="64">
+      <c r="BA4" s="63">
         <v>44288</v>
       </c>
-      <c r="BB4" s="64">
+      <c r="BB4" s="63">
         <v>44288</v>
       </c>
-      <c r="BC4" s="69" t="s">
+      <c r="BC4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="BD4" s="69" t="s">
+      <c r="BD4" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="BE4" s="69" t="s">
+      <c r="BE4" s="68" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF4" s="68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17">
         <v>43497</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63">
         <v>44317</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67">
+      <c r="E5" s="70"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66">
         <v>44315</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="63">
         <v>44348</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="64">
+      <c r="P5" s="70"/>
+      <c r="Q5" s="63">
         <v>44320</v>
       </c>
-      <c r="R5" s="64">
+      <c r="R5" s="63">
         <v>44291</v>
       </c>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="64">
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="63">
         <v>44347</v>
       </c>
-      <c r="V5" s="68">
+      <c r="V5" s="67">
         <v>44361</v>
       </c>
-      <c r="W5" s="64">
+      <c r="W5" s="63">
         <v>44362</v>
       </c>
-      <c r="X5" s="64">
+      <c r="X5" s="63">
         <v>44330</v>
       </c>
-      <c r="Y5" s="64">
+      <c r="Y5" s="63">
         <v>44313</v>
       </c>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="64">
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="63">
         <v>44300</v>
       </c>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="68">
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="67">
         <v>44348</v>
       </c>
-      <c r="AF5" s="64">
+      <c r="AF5" s="63">
         <v>44316</v>
       </c>
-      <c r="AG5" s="70">
+      <c r="AG5" s="69">
         <v>44288</v>
       </c>
-      <c r="AH5" s="64">
+      <c r="AH5" s="63">
         <v>44315</v>
       </c>
-      <c r="AI5" s="64">
+      <c r="AI5" s="63">
         <v>44294</v>
       </c>
-      <c r="AJ5" s="71"/>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="64">
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="63">
         <v>44347</v>
       </c>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="71"/>
-      <c r="AP5" s="64">
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="63">
         <v>44288</v>
       </c>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64">
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63">
         <v>44316</v>
       </c>
-      <c r="AT5" s="64">
+      <c r="AT5" s="63">
         <v>44341</v>
       </c>
-      <c r="AU5" s="71"/>
-      <c r="AV5" s="64">
+      <c r="AU5" s="70"/>
+      <c r="AV5" s="63">
         <v>44292</v>
       </c>
-      <c r="AW5" s="71"/>
-      <c r="AX5" s="64">
+      <c r="AW5" s="70"/>
+      <c r="AX5" s="63">
         <v>44344</v>
       </c>
-      <c r="AY5" s="64">
+      <c r="AY5" s="63">
         <v>44347</v>
       </c>
-      <c r="AZ5" s="64">
+      <c r="AZ5" s="63">
         <v>44295</v>
       </c>
-      <c r="BA5" s="64">
+      <c r="BA5" s="63">
         <v>44358</v>
       </c>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="71"/>
-      <c r="BD5" s="71"/>
-      <c r="BE5" s="72"/>
-    </row>
-    <row r="6" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BB5" s="63"/>
+      <c r="BC5" s="70"/>
+      <c r="BD5" s="70"/>
+      <c r="BE5" s="71"/>
+      <c r="BF5" s="71"/>
+    </row>
+    <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="19">
         <v>43540</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67">
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66">
         <v>44316</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="64">
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="63">
         <v>44349</v>
       </c>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="64">
+      <c r="P6" s="72"/>
+      <c r="Q6" s="63">
         <v>44348</v>
       </c>
-      <c r="R6" s="64">
+      <c r="R6" s="63">
         <v>44295</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="64">
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="63">
         <v>44348</v>
       </c>
-      <c r="V6" s="68">
+      <c r="V6" s="67">
         <v>44362</v>
       </c>
-      <c r="W6" s="64">
+      <c r="W6" s="63">
         <v>44363</v>
       </c>
-      <c r="X6" s="64">
+      <c r="X6" s="63">
         <v>44336</v>
       </c>
-      <c r="Y6" s="64">
+      <c r="Y6" s="63">
         <v>44314</v>
       </c>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="64">
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="63">
         <v>44307</v>
       </c>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="70">
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="69">
         <v>44291</v>
       </c>
-      <c r="AH6" s="64">
+      <c r="AH6" s="63">
         <v>44319</v>
       </c>
-      <c r="AI6" s="64">
+      <c r="AI6" s="63">
         <v>44295</v>
       </c>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="73"/>
-      <c r="AL6" s="64">
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="63">
         <v>44348</v>
       </c>
-      <c r="AM6" s="73"/>
-      <c r="AN6" s="73"/>
-      <c r="AO6" s="73"/>
-      <c r="AP6" s="64">
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
+      <c r="AP6" s="63">
         <v>44312</v>
       </c>
-      <c r="AQ6" s="73"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="73"/>
-      <c r="AT6" s="64">
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="72"/>
+      <c r="AT6" s="63">
         <v>44342</v>
       </c>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="64">
+      <c r="AU6" s="72"/>
+      <c r="AV6" s="63">
         <v>44293</v>
       </c>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="64">
+      <c r="AW6" s="72"/>
+      <c r="AX6" s="63">
         <v>44375</v>
       </c>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="64">
+      <c r="AY6" s="72"/>
+      <c r="AZ6" s="63">
         <v>44319</v>
       </c>
-      <c r="BA6" s="73"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-    </row>
-    <row r="7" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA6" s="72"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="72"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
+      <c r="BF6" s="72"/>
+    </row>
+    <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="20">
         <v>43576</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67">
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66">
         <v>44319</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="64">
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="63">
         <v>44350</v>
       </c>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="64">
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="63">
         <v>44302</v>
       </c>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="64">
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="63">
         <v>44349</v>
       </c>
-      <c r="V7" s="68">
+      <c r="V7" s="67">
         <v>44363</v>
       </c>
-      <c r="W7" s="64">
+      <c r="W7" s="63">
         <v>44364</v>
       </c>
-      <c r="X7" s="64">
+      <c r="X7" s="63">
         <v>44337</v>
       </c>
-      <c r="Y7" s="64">
+      <c r="Y7" s="63">
         <v>44315</v>
       </c>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="64">
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="63">
         <v>44314</v>
       </c>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="70">
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="69">
         <v>44309</v>
       </c>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="64"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="64">
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="63">
         <v>44313</v>
       </c>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="64">
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="63">
         <v>44343</v>
       </c>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="64">
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="63">
         <v>44294</v>
       </c>
-      <c r="AW7" s="71"/>
-      <c r="AX7" s="64">
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="63">
         <v>44376</v>
       </c>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="64">
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="63">
         <v>44341</v>
       </c>
-      <c r="BA7" s="71"/>
-      <c r="BB7" s="64"/>
-      <c r="BC7" s="71"/>
-      <c r="BD7" s="71"/>
-      <c r="BE7" s="72"/>
-    </row>
-    <row r="8" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA7" s="70"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="71"/>
+      <c r="BF7" s="71"/>
+    </row>
+    <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="22">
         <v>43604</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65">
         <v>44320</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="64">
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="63">
         <v>44351</v>
       </c>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="64">
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="63">
         <v>44309</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="64">
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="63">
         <v>44350</v>
       </c>
-      <c r="V8" s="68">
+      <c r="V8" s="67">
         <v>44364</v>
       </c>
-      <c r="W8" s="64">
+      <c r="W8" s="63">
         <v>44365</v>
       </c>
-      <c r="X8" s="64">
+      <c r="X8" s="63">
         <v>44343</v>
       </c>
-      <c r="Y8" s="64">
+      <c r="Y8" s="63">
         <v>44316</v>
       </c>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="64">
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="63">
         <v>44321</v>
       </c>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="70">
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="69">
         <v>44323</v>
       </c>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="64">
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="63">
         <v>44314</v>
       </c>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="64">
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="63">
         <v>44344</v>
       </c>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="64">
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="63">
         <v>44295</v>
       </c>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="64">
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="63">
         <v>44377</v>
       </c>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="64">
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="63">
         <v>44358</v>
       </c>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-    </row>
-    <row r="9" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
+    </row>
+    <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65">
         <v>44321</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="64">
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="63">
         <v>44316</v>
       </c>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="64">
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="63">
         <v>44351</v>
       </c>
-      <c r="V9" s="68">
+      <c r="V9" s="67">
         <v>44365</v>
       </c>
-      <c r="W9" s="74">
+      <c r="W9" s="73">
         <v>44369</v>
       </c>
-      <c r="X9" s="64">
+      <c r="X9" s="63">
         <v>44344</v>
       </c>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="64">
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="63">
         <v>44328</v>
       </c>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="71"/>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="71"/>
-      <c r="AG9" s="70">
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="69">
         <v>44351</v>
       </c>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="71"/>
-      <c r="AJ9" s="71"/>
-      <c r="AK9" s="71"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="71"/>
-      <c r="AP9" s="64">
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="63">
         <v>44315</v>
       </c>
-      <c r="AQ9" s="71"/>
-      <c r="AR9" s="71"/>
-      <c r="AS9" s="71"/>
-      <c r="AT9" s="64">
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="63">
         <v>44375</v>
       </c>
-      <c r="AU9" s="71"/>
-      <c r="AV9" s="64">
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="63">
         <v>44319</v>
       </c>
-      <c r="AW9" s="71"/>
-      <c r="AX9" s="64"/>
-      <c r="AY9" s="71"/>
-      <c r="AZ9" s="71"/>
-      <c r="BA9" s="71"/>
-      <c r="BB9" s="71"/>
-      <c r="BC9" s="71"/>
-      <c r="BD9" s="71"/>
-      <c r="BE9" s="72"/>
-    </row>
-    <row r="10" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="71"/>
+    </row>
+    <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66">
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65">
         <v>44322</v>
       </c>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="64">
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="63">
         <v>44323</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="64">
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="63">
         <v>44352</v>
       </c>
-      <c r="V10" s="68"/>
-      <c r="W10" s="74">
+      <c r="V10" s="67"/>
+      <c r="W10" s="73">
         <v>44370</v>
       </c>
-      <c r="X10" s="64">
+      <c r="X10" s="63">
         <v>44349</v>
       </c>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="64">
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="63">
         <v>44335</v>
       </c>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="64">
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="63">
         <v>44316</v>
       </c>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="64">
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="63">
         <v>44376</v>
       </c>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="64">
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="63">
         <v>44320</v>
       </c>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="64"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-    </row>
-    <row r="11" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="72"/>
+      <c r="BD10" s="72"/>
+      <c r="BE10" s="72"/>
+      <c r="BF10" s="72"/>
+    </row>
+    <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65">
         <v>44323</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="64">
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="63">
         <v>44326</v>
       </c>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="64">
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="63">
         <v>44353</v>
       </c>
-      <c r="V11" s="68"/>
-      <c r="W11" s="74">
+      <c r="V11" s="67"/>
+      <c r="W11" s="73">
         <v>44371</v>
       </c>
-      <c r="X11" s="64">
+      <c r="X11" s="63">
         <v>44350</v>
       </c>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="64">
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="63">
         <v>44342</v>
       </c>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="64">
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="63">
         <v>44340</v>
       </c>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="71"/>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="64">
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="63">
         <v>44377</v>
       </c>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="64">
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="63">
         <v>44321</v>
       </c>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="71"/>
-      <c r="BB11" s="71"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="72"/>
-    </row>
-    <row r="12" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="63"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="71"/>
+    </row>
+    <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="64">
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="63">
         <v>44330</v>
       </c>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="64">
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="63">
         <v>44354</v>
       </c>
-      <c r="V12" s="68"/>
-      <c r="W12" s="74">
+      <c r="V12" s="67"/>
+      <c r="W12" s="73">
         <v>44372</v>
       </c>
-      <c r="X12" s="64">
+      <c r="X12" s="63">
         <v>44351</v>
       </c>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="64">
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="63">
         <v>44349</v>
       </c>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="73"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="64">
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="63">
         <v>44341</v>
       </c>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="64">
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="63">
         <v>44322</v>
       </c>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="64"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="73"/>
-    </row>
-    <row r="13" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="63"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="72"/>
+      <c r="BD12" s="72"/>
+      <c r="BE12" s="72"/>
+      <c r="BF12" s="72"/>
+    </row>
+    <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="64">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="63">
         <v>44337</v>
       </c>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="64">
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="63">
         <v>44355</v>
       </c>
-      <c r="V13" s="71"/>
-      <c r="W13" s="74">
+      <c r="V13" s="70"/>
+      <c r="W13" s="73">
         <v>44373</v>
       </c>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="64">
+      <c r="X13" s="63"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="63">
         <v>44356</v>
       </c>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="71"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="71"/>
-      <c r="AG13" s="71"/>
-      <c r="AH13" s="71"/>
-      <c r="AI13" s="71"/>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="71"/>
-      <c r="AL13" s="71"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="64">
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="70"/>
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="63">
         <v>44342</v>
       </c>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="64">
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="70"/>
+      <c r="AS13" s="70"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="70"/>
+      <c r="AV13" s="63">
         <v>44323</v>
       </c>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="71"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="71"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="72"/>
-    </row>
-    <row r="14" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="63"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="71"/>
+      <c r="BF13" s="71"/>
+    </row>
+    <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="64">
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="63">
         <v>44344</v>
       </c>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="74">
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="73">
         <v>44374</v>
       </c>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="64">
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="63">
         <v>44363</v>
       </c>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="73"/>
-      <c r="AD14" s="73"/>
-      <c r="AE14" s="73"/>
-      <c r="AF14" s="73"/>
-      <c r="AG14" s="73"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="73"/>
-      <c r="AK14" s="73"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="64">
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="63">
         <v>44343</v>
       </c>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="64">
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="63">
         <v>44354</v>
       </c>
-      <c r="AW14" s="73"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="73"/>
-      <c r="AZ14" s="73"/>
-      <c r="BA14" s="73"/>
-      <c r="BB14" s="73"/>
-      <c r="BC14" s="73"/>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="73"/>
-    </row>
-    <row r="15" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+      <c r="BC14" s="72"/>
+      <c r="BD14" s="72"/>
+      <c r="BE14" s="72"/>
+      <c r="BF14" s="72"/>
+    </row>
+    <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="64">
+      <c r="C15" s="70"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="63">
         <v>44347</v>
       </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="64">
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="63">
         <v>44370</v>
       </c>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="71"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="64">
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="70"/>
+      <c r="AP15" s="63">
         <v>44344</v>
       </c>
-      <c r="AQ15" s="71"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="64">
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="63">
         <v>44355</v>
       </c>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="64"/>
-      <c r="AY15" s="71"/>
-      <c r="AZ15" s="71"/>
-      <c r="BA15" s="71"/>
-      <c r="BB15" s="71"/>
-      <c r="BC15" s="71"/>
-      <c r="BD15" s="71"/>
-      <c r="BE15" s="72"/>
-    </row>
-    <row r="16" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
+      <c r="BC15" s="70"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="71"/>
+      <c r="BF15" s="71"/>
+    </row>
+    <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="64">
+      <c r="C16" s="72"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="63">
         <v>44348</v>
       </c>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="64">
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="63">
         <v>44377</v>
       </c>
-      <c r="AB16" s="73"/>
-      <c r="AC16" s="73"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="64">
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="63">
         <v>44375</v>
       </c>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="64">
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="63">
         <v>44356</v>
       </c>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="64"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-    </row>
-    <row r="17" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="63"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="72"/>
+      <c r="BF16" s="72"/>
+    </row>
+    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="64">
+      <c r="C17" s="70"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="63">
         <v>44349</v>
       </c>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="64">
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="70"/>
+      <c r="AM17" s="70"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="63">
         <v>44376</v>
       </c>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="64">
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="70"/>
+      <c r="AS17" s="70"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="63">
         <v>44357</v>
       </c>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="71"/>
-      <c r="BE17" s="72"/>
-    </row>
-    <row r="18" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="70"/>
+      <c r="BB17" s="70"/>
+      <c r="BC17" s="70"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="71"/>
+      <c r="BF17" s="71"/>
+    </row>
+    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="64">
+      <c r="C18" s="72"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="63">
         <v>44351</v>
       </c>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="73"/>
-      <c r="AC18" s="73"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="64">
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="63">
         <v>44377</v>
       </c>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="64">
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="63">
         <v>44358</v>
       </c>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-    </row>
-    <row r="19" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="72"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="72"/>
+      <c r="BD18" s="72"/>
+      <c r="BE18" s="72"/>
+      <c r="BF18" s="72"/>
+    </row>
+    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="64">
+      <c r="C19" s="70"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="63">
         <v>44358</v>
       </c>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="71"/>
-      <c r="AP19" s="71"/>
-      <c r="AQ19" s="71"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="71"/>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="71"/>
-      <c r="AY19" s="71"/>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="71"/>
-      <c r="BB19" s="71"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="71"/>
-      <c r="BE19" s="72"/>
-    </row>
-    <row r="20" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="70"/>
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="70"/>
+      <c r="AO19" s="70"/>
+      <c r="AP19" s="70"/>
+      <c r="AQ19" s="70"/>
+      <c r="AR19" s="70"/>
+      <c r="AS19" s="70"/>
+      <c r="AT19" s="70"/>
+      <c r="AU19" s="70"/>
+      <c r="AV19" s="70"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="70"/>
+      <c r="AY19" s="70"/>
+      <c r="AZ19" s="70"/>
+      <c r="BA19" s="70"/>
+      <c r="BB19" s="70"/>
+      <c r="BC19" s="70"/>
+      <c r="BD19" s="70"/>
+      <c r="BE19" s="71"/>
+      <c r="BF19" s="71"/>
+    </row>
+    <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="64">
+      <c r="C20" s="72"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="63">
         <v>44365</v>
       </c>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="73"/>
-      <c r="BD20" s="73"/>
-      <c r="BE20" s="73"/>
-    </row>
-    <row r="21" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="72"/>
+      <c r="BA20" s="72"/>
+      <c r="BB20" s="72"/>
+      <c r="BC20" s="72"/>
+      <c r="BD20" s="72"/>
+      <c r="BE20" s="72"/>
+      <c r="BF20" s="72"/>
+    </row>
+    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="64">
+      <c r="C21" s="70"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="63">
         <v>44372</v>
       </c>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="71"/>
-      <c r="AQ21" s="71"/>
-      <c r="AR21" s="71"/>
-      <c r="AS21" s="71"/>
-      <c r="AT21" s="71"/>
-      <c r="AU21" s="71"/>
-      <c r="AV21" s="71"/>
-      <c r="AW21" s="71"/>
-      <c r="AX21" s="71"/>
-      <c r="AY21" s="71"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="71"/>
-      <c r="BE21" s="72"/>
-    </row>
-    <row r="22" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70"/>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="71"/>
+      <c r="BF21" s="71"/>
+    </row>
+    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="24"/>
       <c r="C22" s="28"/>
@@ -4281,8 +4304,9 @@
       <c r="BC22" s="28"/>
       <c r="BD22" s="28"/>
       <c r="BE22" s="28"/>
-    </row>
-    <row r="23" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF22" s="28"/>
+    </row>
+    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
@@ -4340,8 +4364,9 @@
       <c r="BC23" s="26"/>
       <c r="BD23" s="26"/>
       <c r="BE23" s="27"/>
-    </row>
-    <row r="24" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF23" s="27"/>
+    </row>
+    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="24"/>
       <c r="C24" s="28"/>
@@ -4399,8 +4424,9 @@
       <c r="BC24" s="28"/>
       <c r="BD24" s="28"/>
       <c r="BE24" s="28"/>
-    </row>
-    <row r="25" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF24" s="28"/>
+    </row>
+    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
@@ -4458,8 +4484,9 @@
       <c r="BC25" s="26"/>
       <c r="BD25" s="26"/>
       <c r="BE25" s="27"/>
-    </row>
-    <row r="26" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF25" s="27"/>
+    </row>
+    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="24"/>
       <c r="C26" s="28"/>
@@ -4517,8 +4544,9 @@
       <c r="BC26" s="28"/>
       <c r="BD26" s="28"/>
       <c r="BE26" s="28"/>
-    </row>
-    <row r="27" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF26" s="28"/>
+    </row>
+    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
@@ -4576,8 +4604,9 @@
       <c r="BC27" s="26"/>
       <c r="BD27" s="26"/>
       <c r="BE27" s="27"/>
-    </row>
-    <row r="28" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF27" s="27"/>
+    </row>
+    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="24"/>
       <c r="C28" s="28"/>
@@ -4635,8 +4664,9 @@
       <c r="BC28" s="28"/>
       <c r="BD28" s="28"/>
       <c r="BE28" s="28"/>
-    </row>
-    <row r="29" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF28" s="28"/>
+    </row>
+    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
@@ -4694,8 +4724,9 @@
       <c r="BC29" s="26"/>
       <c r="BD29" s="26"/>
       <c r="BE29" s="27"/>
-    </row>
-    <row r="30" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF29" s="27"/>
+    </row>
+    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="24"/>
       <c r="C30" s="28"/>
@@ -4753,8 +4784,9 @@
       <c r="BC30" s="28"/>
       <c r="BD30" s="28"/>
       <c r="BE30" s="28"/>
-    </row>
-    <row r="31" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF30" s="28"/>
+    </row>
+    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
@@ -4812,8 +4844,9 @@
       <c r="BC31" s="26"/>
       <c r="BD31" s="26"/>
       <c r="BE31" s="27"/>
-    </row>
-    <row r="32" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF31" s="27"/>
+    </row>
+    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="24"/>
       <c r="C32" s="28"/>
@@ -4871,8 +4904,9 @@
       <c r="BC32" s="28"/>
       <c r="BD32" s="28"/>
       <c r="BE32" s="28"/>
-    </row>
-    <row r="33" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF32" s="28"/>
+    </row>
+    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
@@ -4930,8 +4964,9 @@
       <c r="BC33" s="26"/>
       <c r="BD33" s="26"/>
       <c r="BE33" s="27"/>
-    </row>
-    <row r="34" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF33" s="27"/>
+    </row>
+    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="24"/>
       <c r="C34" s="28"/>
@@ -4989,8 +5024,9 @@
       <c r="BC34" s="28"/>
       <c r="BD34" s="28"/>
       <c r="BE34" s="28"/>
-    </row>
-    <row r="35" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF34" s="28"/>
+    </row>
+    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
@@ -5048,8 +5084,9 @@
       <c r="BC35" s="26"/>
       <c r="BD35" s="26"/>
       <c r="BE35" s="27"/>
-    </row>
-    <row r="36" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF35" s="27"/>
+    </row>
+    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="24"/>
       <c r="C36" s="28"/>
@@ -5107,8 +5144,9 @@
       <c r="BC36" s="28"/>
       <c r="BD36" s="28"/>
       <c r="BE36" s="28"/>
-    </row>
-    <row r="37" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF36" s="28"/>
+    </row>
+    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
@@ -5166,8 +5204,9 @@
       <c r="BC37" s="26"/>
       <c r="BD37" s="26"/>
       <c r="BE37" s="27"/>
-    </row>
-    <row r="38" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF37" s="27"/>
+    </row>
+    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="24"/>
       <c r="C38" s="28"/>
@@ -5225,8 +5264,9 @@
       <c r="BC38" s="28"/>
       <c r="BD38" s="28"/>
       <c r="BE38" s="28"/>
-    </row>
-    <row r="39" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF38" s="28"/>
+    </row>
+    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
@@ -5284,8 +5324,9 @@
       <c r="BC39" s="26"/>
       <c r="BD39" s="26"/>
       <c r="BE39" s="27"/>
-    </row>
-    <row r="40" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF39" s="27"/>
+    </row>
+    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="24"/>
       <c r="C40" s="28"/>
@@ -5343,8 +5384,9 @@
       <c r="BC40" s="28"/>
       <c r="BD40" s="28"/>
       <c r="BE40" s="28"/>
-    </row>
-    <row r="41" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF40" s="28"/>
+    </row>
+    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
@@ -5402,8 +5444,9 @@
       <c r="BC41" s="26"/>
       <c r="BD41" s="26"/>
       <c r="BE41" s="27"/>
-    </row>
-    <row r="42" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF41" s="27"/>
+    </row>
+    <row r="42" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="24"/>
       <c r="C42" s="28"/>
@@ -5461,8 +5504,9 @@
       <c r="BC42" s="28"/>
       <c r="BD42" s="28"/>
       <c r="BE42" s="28"/>
-    </row>
-    <row r="43" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF42" s="28"/>
+    </row>
+    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
@@ -5520,8 +5564,9 @@
       <c r="BC43" s="26"/>
       <c r="BD43" s="26"/>
       <c r="BE43" s="27"/>
-    </row>
-    <row r="44" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF43" s="27"/>
+    </row>
+    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="24"/>
       <c r="C44" s="28"/>
@@ -5579,8 +5624,9 @@
       <c r="BC44" s="28"/>
       <c r="BD44" s="28"/>
       <c r="BE44" s="28"/>
-    </row>
-    <row r="45" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF44" s="28"/>
+    </row>
+    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
@@ -5638,8 +5684,9 @@
       <c r="BC45" s="26"/>
       <c r="BD45" s="26"/>
       <c r="BE45" s="27"/>
-    </row>
-    <row r="46" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF45" s="27"/>
+    </row>
+    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="24"/>
       <c r="C46" s="28"/>
@@ -5697,8 +5744,9 @@
       <c r="BC46" s="28"/>
       <c r="BD46" s="28"/>
       <c r="BE46" s="28"/>
-    </row>
-    <row r="47" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF46" s="28"/>
+    </row>
+    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
@@ -5756,8 +5804,9 @@
       <c r="BC47" s="26"/>
       <c r="BD47" s="26"/>
       <c r="BE47" s="27"/>
-    </row>
-    <row r="48" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF47" s="27"/>
+    </row>
+    <row r="48" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="24"/>
       <c r="C48" s="28"/>
@@ -5815,8 +5864,9 @@
       <c r="BC48" s="28"/>
       <c r="BD48" s="28"/>
       <c r="BE48" s="28"/>
-    </row>
-    <row r="49" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF48" s="28"/>
+    </row>
+    <row r="49" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
@@ -5874,8 +5924,9 @@
       <c r="BC49" s="26"/>
       <c r="BD49" s="26"/>
       <c r="BE49" s="27"/>
-    </row>
-    <row r="50" spans="1:57" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF49" s="27"/>
+    </row>
+    <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
       <c r="B50" s="30"/>
       <c r="C50" s="31"/>
@@ -5933,11 +5984,13 @@
       <c r="BC50" s="31"/>
       <c r="BD50" s="31"/>
       <c r="BE50" s="31"/>
+      <c r="BF50" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5962,10 +6015,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="81"/>
       <c r="C1" s="33"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -5992,7 +6045,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="75">
+      <c r="B4" s="74">
         <v>44301</v>
       </c>
       <c r="C4" s="34"/>
@@ -6001,7 +6054,7 @@
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
-      <c r="B5" s="76">
+      <c r="B5" s="75">
         <v>44347</v>
       </c>
       <c r="C5" s="34"/>
@@ -6010,7 +6063,7 @@
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
-      <c r="B6" s="76">
+      <c r="B6" s="75">
         <v>44364</v>
       </c>
       <c r="C6" s="34"/>
@@ -6061,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6071,18 +6124,18 @@
     <col min="2" max="2" width="23.5" style="40" customWidth="1"/>
     <col min="3" max="3" width="11" style="40" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="23" style="62" customWidth="1"/>
+    <col min="5" max="5" width="23" style="61" customWidth="1"/>
     <col min="6" max="256" width="11" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
       <c r="H1" s="41"/>
@@ -6130,7 +6183,7 @@
       <c r="D3" s="49">
         <v>10</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="59">
         <v>50</v>
       </c>
       <c r="F3" s="34"/>
@@ -6154,7 +6207,7 @@
       <c r="D4" s="53">
         <v>0</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="76">
         <v>24</v>
       </c>
       <c r="F4" s="34"/>
@@ -6178,7 +6231,7 @@
       <c r="D5" s="53">
         <v>0</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="77">
         <v>7</v>
       </c>
       <c r="F5" s="34"/>
@@ -6202,7 +6255,7 @@
       <c r="D6" s="53">
         <v>0</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="77">
         <v>4</v>
       </c>
       <c r="F6" s="34"/>
@@ -6226,7 +6279,7 @@
       <c r="D7" s="53">
         <v>0</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="77">
         <v>15</v>
       </c>
       <c r="F7" s="34"/>
@@ -6250,7 +6303,7 @@
       <c r="D8" s="53">
         <v>0</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="77">
         <v>8</v>
       </c>
       <c r="F8" s="34"/>
@@ -6274,7 +6327,7 @@
       <c r="D9" s="53">
         <v>0</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="77">
         <v>4</v>
       </c>
       <c r="F9" s="34"/>
@@ -6298,7 +6351,7 @@
       <c r="D10" s="53">
         <v>0</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="77">
         <v>30</v>
       </c>
       <c r="F10" s="34"/>
@@ -6322,7 +6375,7 @@
       <c r="D11" s="53">
         <v>0</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="77">
         <v>41</v>
       </c>
       <c r="F11" s="34"/>
@@ -6346,7 +6399,7 @@
       <c r="D12" s="53">
         <v>0</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="77">
         <v>25</v>
       </c>
       <c r="F12" s="34"/>
@@ -6370,7 +6423,7 @@
       <c r="D13" s="53">
         <v>0</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="77">
         <v>23</v>
       </c>
       <c r="F13" s="34"/>
@@ -6394,7 +6447,7 @@
       <c r="D14" s="53">
         <v>0</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="77">
         <v>60</v>
       </c>
       <c r="F14" s="34"/>
@@ -6418,7 +6471,7 @@
       <c r="D15" s="53">
         <v>0</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="77">
         <v>60</v>
       </c>
       <c r="F15" s="34"/>
@@ -6442,7 +6495,7 @@
       <c r="D16" s="53">
         <v>0</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="77">
         <v>118</v>
       </c>
       <c r="F16" s="34"/>
@@ -6466,7 +6519,7 @@
       <c r="D17" s="53">
         <v>0</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="77">
         <v>170</v>
       </c>
       <c r="F17" s="34"/>
@@ -6490,7 +6543,7 @@
       <c r="D18" s="53">
         <v>0</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="77">
         <v>117</v>
       </c>
       <c r="F18" s="34"/>
@@ -6514,7 +6567,7 @@
       <c r="D19" s="53">
         <v>0</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="77">
         <v>60</v>
       </c>
       <c r="F19" s="34"/>
@@ -6538,7 +6591,7 @@
       <c r="D20" s="53">
         <v>0</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="77">
         <v>60</v>
       </c>
       <c r="F20" s="34"/>
@@ -6562,7 +6615,7 @@
       <c r="D21" s="53">
         <v>0</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="77">
         <v>50</v>
       </c>
       <c r="F21" s="34"/>
@@ -6586,7 +6639,7 @@
       <c r="D22" s="53">
         <v>0</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="77">
         <v>57</v>
       </c>
       <c r="F22" s="34"/>
@@ -6610,7 +6663,7 @@
       <c r="D23" s="53">
         <v>0</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E23" s="77">
         <v>26</v>
       </c>
       <c r="F23" s="34"/>
@@ -6634,7 +6687,7 @@
       <c r="D24" s="53">
         <v>0</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="77">
         <v>83</v>
       </c>
       <c r="F24" s="34"/>
@@ -6658,7 +6711,7 @@
       <c r="D25" s="53">
         <v>0</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="77">
         <v>37</v>
       </c>
       <c r="F25" s="34"/>
@@ -6682,7 +6735,7 @@
       <c r="D26" s="53">
         <v>0</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="77">
         <v>25</v>
       </c>
       <c r="F26" s="34"/>
@@ -6706,7 +6759,7 @@
       <c r="D27" s="53">
         <v>0</v>
       </c>
-      <c r="E27" s="78">
+      <c r="E27" s="77">
         <v>60</v>
       </c>
       <c r="F27" s="34"/>
@@ -6730,7 +6783,7 @@
       <c r="D28" s="53">
         <v>0</v>
       </c>
-      <c r="E28" s="78">
+      <c r="E28" s="77">
         <v>39</v>
       </c>
       <c r="F28" s="34"/>
@@ -6754,7 +6807,7 @@
       <c r="D29" s="53">
         <v>0</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="77">
         <v>30</v>
       </c>
       <c r="F29" s="34"/>
@@ -6778,7 +6831,7 @@
       <c r="D30" s="53">
         <v>0</v>
       </c>
-      <c r="E30" s="78">
+      <c r="E30" s="77">
         <v>25</v>
       </c>
       <c r="F30" s="34"/>
@@ -6802,7 +6855,7 @@
       <c r="D31" s="53">
         <v>0</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="77">
         <v>10</v>
       </c>
       <c r="F31" s="34"/>
@@ -6826,7 +6879,7 @@
       <c r="D32" s="53">
         <v>0</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="77">
         <v>5</v>
       </c>
       <c r="F32" s="34"/>
@@ -6850,7 +6903,7 @@
       <c r="D33" s="53">
         <v>0</v>
       </c>
-      <c r="E33" s="78">
+      <c r="E33" s="77">
         <v>19</v>
       </c>
       <c r="F33" s="34"/>
@@ -6874,7 +6927,7 @@
       <c r="D34" s="53">
         <v>0</v>
       </c>
-      <c r="E34" s="78">
+      <c r="E34" s="77">
         <v>2</v>
       </c>
       <c r="F34" s="34"/>
@@ -6898,7 +6951,7 @@
       <c r="D35" s="53">
         <v>0</v>
       </c>
-      <c r="E35" s="78">
+      <c r="E35" s="77">
         <v>0</v>
       </c>
       <c r="F35" s="34"/>
@@ -6922,7 +6975,7 @@
       <c r="D36" s="53">
         <v>0</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="77">
         <v>3</v>
       </c>
       <c r="F36" s="34"/>
@@ -6946,7 +6999,7 @@
       <c r="D37" s="53">
         <v>0</v>
       </c>
-      <c r="E37" s="78">
+      <c r="E37" s="77">
         <v>51</v>
       </c>
       <c r="F37" s="34"/>
@@ -6970,7 +7023,7 @@
       <c r="D38" s="53">
         <v>0</v>
       </c>
-      <c r="E38" s="78">
+      <c r="E38" s="77">
         <v>12</v>
       </c>
       <c r="F38" s="34"/>
@@ -6994,7 +7047,7 @@
       <c r="D39" s="53">
         <v>0</v>
       </c>
-      <c r="E39" s="78">
+      <c r="E39" s="77">
         <v>5</v>
       </c>
       <c r="F39" s="34"/>
@@ -7018,7 +7071,7 @@
       <c r="D40" s="53">
         <v>0</v>
       </c>
-      <c r="E40" s="78">
+      <c r="E40" s="77">
         <v>2</v>
       </c>
       <c r="F40" s="34"/>
@@ -7042,7 +7095,7 @@
       <c r="D41" s="53">
         <v>0</v>
       </c>
-      <c r="E41" s="78">
+      <c r="E41" s="77">
         <v>55</v>
       </c>
       <c r="F41" s="34"/>
@@ -7066,7 +7119,7 @@
       <c r="D42" s="53">
         <v>0</v>
       </c>
-      <c r="E42" s="78">
+      <c r="E42" s="77">
         <v>53</v>
       </c>
       <c r="F42" s="34"/>
@@ -7090,7 +7143,7 @@
       <c r="D43" s="53">
         <v>0</v>
       </c>
-      <c r="E43" s="78">
+      <c r="E43" s="77">
         <v>35</v>
       </c>
       <c r="F43" s="34"/>
@@ -7114,7 +7167,7 @@
       <c r="D44" s="53">
         <v>0</v>
       </c>
-      <c r="E44" s="78">
+      <c r="E44" s="77">
         <v>28</v>
       </c>
       <c r="F44" s="34"/>
@@ -7138,7 +7191,7 @@
       <c r="D45" s="53">
         <v>0</v>
       </c>
-      <c r="E45" s="78">
+      <c r="E45" s="77">
         <v>3</v>
       </c>
       <c r="F45" s="34"/>
@@ -7162,7 +7215,7 @@
       <c r="D46" s="53">
         <v>0</v>
       </c>
-      <c r="E46" s="78">
+      <c r="E46" s="77">
         <v>33</v>
       </c>
       <c r="F46" s="34"/>
@@ -7186,7 +7239,7 @@
       <c r="D47" s="53">
         <v>0</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="77">
         <v>90</v>
       </c>
       <c r="F47" s="34"/>
@@ -7210,7 +7263,7 @@
       <c r="D48" s="53">
         <v>0</v>
       </c>
-      <c r="E48" s="78">
+      <c r="E48" s="77">
         <v>32</v>
       </c>
       <c r="F48" s="34"/>
@@ -7234,7 +7287,7 @@
       <c r="D49" s="53">
         <v>0</v>
       </c>
-      <c r="E49" s="78">
+      <c r="E49" s="77">
         <v>35</v>
       </c>
       <c r="F49" s="34"/>
@@ -7258,7 +7311,7 @@
       <c r="D50" s="53">
         <v>0</v>
       </c>
-      <c r="E50" s="78">
+      <c r="E50" s="77">
         <v>8</v>
       </c>
       <c r="F50" s="34"/>
@@ -7282,7 +7335,7 @@
       <c r="D51" s="53">
         <v>0</v>
       </c>
-      <c r="E51" s="78">
+      <c r="E51" s="77">
         <v>16</v>
       </c>
       <c r="F51" s="34"/>
@@ -7306,7 +7359,7 @@
       <c r="D52" s="53">
         <v>0</v>
       </c>
-      <c r="E52" s="78">
+      <c r="E52" s="77">
         <v>15</v>
       </c>
       <c r="F52" s="34"/>
@@ -7330,7 +7383,7 @@
       <c r="D53" s="53">
         <v>0</v>
       </c>
-      <c r="E53" s="78">
+      <c r="E53" s="77">
         <v>1</v>
       </c>
       <c r="F53" s="34"/>
@@ -7354,7 +7407,7 @@
       <c r="D54" s="53">
         <v>0</v>
       </c>
-      <c r="E54" s="78">
+      <c r="E54" s="77">
         <v>10</v>
       </c>
       <c r="F54" s="34"/>
@@ -7378,7 +7431,7 @@
       <c r="D55" s="53">
         <v>0</v>
       </c>
-      <c r="E55" s="78">
+      <c r="E55" s="77">
         <v>166</v>
       </c>
       <c r="F55" s="34"/>
@@ -7402,7 +7455,7 @@
       <c r="D56" s="53">
         <v>0</v>
       </c>
-      <c r="E56" s="78">
+      <c r="E56" s="77">
         <v>3</v>
       </c>
       <c r="F56" s="34"/>
@@ -7426,7 +7479,7 @@
       <c r="D57" s="53">
         <v>0</v>
       </c>
-      <c r="E57" s="78">
+      <c r="E57" s="77">
         <v>6</v>
       </c>
       <c r="F57" s="34"/>
@@ -7450,7 +7503,7 @@
       <c r="D58" s="53">
         <v>0</v>
       </c>
-      <c r="E58" s="78">
+      <c r="E58" s="77">
         <v>25</v>
       </c>
       <c r="F58" s="34"/>
@@ -7465,10 +7518,18 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="61"/>
+      <c r="B59" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="77">
+        <v>0</v>
+      </c>
+      <c r="E59" s="77">
+        <v>120</v>
+      </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
@@ -7483,8 +7544,8 @@
       <c r="A60" s="56"/>
       <c r="B60" s="33"/>
       <c r="C60" s="34"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="61"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="60"/>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
@@ -7499,8 +7560,8 @@
       <c r="A61" s="56"/>
       <c r="B61" s="33"/>
       <c r="C61" s="34"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="61"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="60"/>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
@@ -7515,8 +7576,8 @@
       <c r="A62" s="56"/>
       <c r="B62" s="33"/>
       <c r="C62" s="34"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="61"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="60"/>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
@@ -7531,8 +7592,8 @@
       <c r="A63" s="56"/>
       <c r="B63" s="33"/>
       <c r="C63" s="34"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="61"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="60"/>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
@@ -7547,8 +7608,8 @@
       <c r="A64" s="56"/>
       <c r="B64" s="33"/>
       <c r="C64" s="34"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="61"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="60"/>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
@@ -7563,8 +7624,8 @@
       <c r="A65" s="56"/>
       <c r="B65" s="33"/>
       <c r="C65" s="34"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="61"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="60"/>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
@@ -7580,7 +7641,7 @@
       <c r="B66" s="33"/>
       <c r="C66" s="34"/>
       <c r="D66" s="53"/>
-      <c r="E66" s="61"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
@@ -7596,7 +7657,7 @@
       <c r="B67" s="33"/>
       <c r="C67" s="34"/>
       <c r="D67" s="53"/>
-      <c r="E67" s="61"/>
+      <c r="E67" s="60"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
@@ -7612,7 +7673,7 @@
       <c r="B68" s="33"/>
       <c r="C68" s="34"/>
       <c r="D68" s="53"/>
-      <c r="E68" s="61"/>
+      <c r="E68" s="60"/>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
@@ -7628,7 +7689,7 @@
       <c r="B69" s="33"/>
       <c r="C69" s="34"/>
       <c r="D69" s="53"/>
-      <c r="E69" s="61"/>
+      <c r="E69" s="60"/>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
@@ -7644,7 +7705,7 @@
       <c r="B70" s="33"/>
       <c r="C70" s="34"/>
       <c r="D70" s="53"/>
-      <c r="E70" s="61"/>
+      <c r="E70" s="60"/>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
@@ -7660,7 +7721,7 @@
       <c r="B71" s="33"/>
       <c r="C71" s="34"/>
       <c r="D71" s="53"/>
-      <c r="E71" s="61"/>
+      <c r="E71" s="60"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
@@ -7676,7 +7737,7 @@
       <c r="B72" s="33"/>
       <c r="C72" s="34"/>
       <c r="D72" s="53"/>
-      <c r="E72" s="61"/>
+      <c r="E72" s="60"/>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
@@ -7692,7 +7753,7 @@
       <c r="B73" s="33"/>
       <c r="C73" s="34"/>
       <c r="D73" s="53"/>
-      <c r="E73" s="61"/>
+      <c r="E73" s="60"/>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
@@ -7708,7 +7769,7 @@
       <c r="B74" s="33"/>
       <c r="C74" s="34"/>
       <c r="D74" s="53"/>
-      <c r="E74" s="61"/>
+      <c r="E74" s="60"/>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
@@ -7724,7 +7785,7 @@
       <c r="B75" s="33"/>
       <c r="C75" s="34"/>
       <c r="D75" s="53"/>
-      <c r="E75" s="61"/>
+      <c r="E75" s="60"/>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
@@ -7740,7 +7801,7 @@
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
       <c r="D76" s="53"/>
-      <c r="E76" s="61"/>
+      <c r="E76" s="60"/>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
@@ -7756,7 +7817,7 @@
       <c r="B77" s="33"/>
       <c r="C77" s="34"/>
       <c r="D77" s="53"/>
-      <c r="E77" s="61"/>
+      <c r="E77" s="60"/>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
@@ -7772,7 +7833,7 @@
       <c r="B78" s="33"/>
       <c r="C78" s="34"/>
       <c r="D78" s="53"/>
-      <c r="E78" s="61"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
@@ -7788,7 +7849,7 @@
       <c r="B79" s="33"/>
       <c r="C79" s="34"/>
       <c r="D79" s="53"/>
-      <c r="E79" s="61"/>
+      <c r="E79" s="60"/>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
@@ -7804,7 +7865,7 @@
       <c r="B80" s="33"/>
       <c r="C80" s="34"/>
       <c r="D80" s="53"/>
-      <c r="E80" s="61"/>
+      <c r="E80" s="60"/>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
@@ -7820,7 +7881,7 @@
       <c r="B81" s="33"/>
       <c r="C81" s="34"/>
       <c r="D81" s="53"/>
-      <c r="E81" s="61"/>
+      <c r="E81" s="60"/>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
@@ -7836,7 +7897,7 @@
       <c r="B82" s="33"/>
       <c r="C82" s="34"/>
       <c r="D82" s="53"/>
-      <c r="E82" s="61"/>
+      <c r="E82" s="60"/>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
@@ -7852,7 +7913,7 @@
       <c r="B83" s="33"/>
       <c r="C83" s="34"/>
       <c r="D83" s="53"/>
-      <c r="E83" s="61"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
@@ -7868,7 +7929,7 @@
       <c r="B84" s="33"/>
       <c r="C84" s="34"/>
       <c r="D84" s="53"/>
-      <c r="E84" s="61"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
@@ -7884,7 +7945,7 @@
       <c r="B85" s="33"/>
       <c r="C85" s="34"/>
       <c r="D85" s="53"/>
-      <c r="E85" s="61"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
@@ -7900,7 +7961,7 @@
       <c r="B86" s="33"/>
       <c r="C86" s="34"/>
       <c r="D86" s="53"/>
-      <c r="E86" s="61"/>
+      <c r="E86" s="60"/>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
@@ -7916,7 +7977,7 @@
       <c r="B87" s="33"/>
       <c r="C87" s="34"/>
       <c r="D87" s="53"/>
-      <c r="E87" s="61"/>
+      <c r="E87" s="60"/>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
@@ -7932,7 +7993,7 @@
       <c r="B88" s="33"/>
       <c r="C88" s="34"/>
       <c r="D88" s="53"/>
-      <c r="E88" s="61"/>
+      <c r="E88" s="60"/>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
@@ -7948,7 +8009,7 @@
       <c r="B89" s="33"/>
       <c r="C89" s="34"/>
       <c r="D89" s="53"/>
-      <c r="E89" s="61"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
       <c r="H89" s="34"/>
@@ -7964,7 +8025,7 @@
       <c r="B90" s="33"/>
       <c r="C90" s="34"/>
       <c r="D90" s="53"/>
-      <c r="E90" s="61"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
@@ -7980,7 +8041,7 @@
       <c r="B91" s="33"/>
       <c r="C91" s="34"/>
       <c r="D91" s="53"/>
-      <c r="E91" s="61"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
@@ -7996,7 +8057,7 @@
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
       <c r="D92" s="53"/>
-      <c r="E92" s="61"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
@@ -8012,7 +8073,7 @@
       <c r="B93" s="33"/>
       <c r="C93" s="34"/>
       <c r="D93" s="53"/>
-      <c r="E93" s="61"/>
+      <c r="E93" s="60"/>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
@@ -8028,7 +8089,7 @@
       <c r="B94" s="33"/>
       <c r="C94" s="34"/>
       <c r="D94" s="53"/>
-      <c r="E94" s="61"/>
+      <c r="E94" s="60"/>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
@@ -8044,7 +8105,7 @@
       <c r="B95" s="33"/>
       <c r="C95" s="34"/>
       <c r="D95" s="53"/>
-      <c r="E95" s="61"/>
+      <c r="E95" s="60"/>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
@@ -8060,7 +8121,7 @@
       <c r="B96" s="33"/>
       <c r="C96" s="34"/>
       <c r="D96" s="53"/>
-      <c r="E96" s="61"/>
+      <c r="E96" s="60"/>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
@@ -8072,11 +8133,11 @@
       <c r="N96" s="34"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="59"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
       <c r="D97" s="53"/>
-      <c r="E97" s="61"/>
+      <c r="E97" s="60"/>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
       <c r="H97" s="34"/>

--- a/spec/support/validRoNoRoomsSpreadsheet.xlsx
+++ b/spec/support/validRoNoRoomsSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A4F55-85AF-5849-839B-46DDB383A4EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB6BC58-8A2E-DE4B-8853-75BA4C6BB0F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="1340" windowWidth="23160" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15240" yWindow="1340" windowWidth="23160" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="129">
   <si>
     <t>Example</t>
   </si>
@@ -384,16 +384,31 @@
     <t xml:space="preserve">Des Moines, IA </t>
   </si>
   <si>
-    <t>Number of Hearing Days Without Rooms in Date Range</t>
-  </si>
-  <si>
-    <t>Number of Hearing Days with 425 I Rooms Allocated in Date Range</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>NVHQ</t>
+  </si>
+  <si>
+    <t>Virtual Days</t>
+  </si>
+  <si>
+    <t># of Video Days</t>
+  </si>
+  <si>
+    <t># of Virtual Days</t>
+  </si>
+  <si>
+    <t>Number of Time Slots</t>
+  </si>
+  <si>
+    <t>Length of Time Slots (Minutes)</t>
+  </si>
+  <si>
+    <t>Start Time (Eastern)</t>
+  </si>
+  <si>
+    <t>8:30</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -506,8 +521,45 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +608,38 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -833,56 +915,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -935,34 +967,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -989,11 +993,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,58 +1229,41 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,17 +1276,53 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AZ1" workbookViewId="0">
       <selection activeCell="BF2" sqref="BF2:BF4"/>
     </sheetView>
   </sheetViews>
@@ -2355,19 +2537,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2586,8 +2768,8 @@
       <c r="BE2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="86" t="s">
-        <v>123</v>
+      <c r="BF2" s="70" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2762,8 +2944,8 @@
       <c r="BE3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="85" t="s">
-        <v>122</v>
+      <c r="BF3" s="69" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,173 +2955,173 @@
       <c r="B4" s="15">
         <v>43466</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="63">
+      <c r="C4" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="54">
         <v>44316</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="66">
+      <c r="E4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="57">
         <v>44314</v>
       </c>
-      <c r="I4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="O4" s="63">
+      <c r="I4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="54">
         <v>44347</v>
       </c>
-      <c r="P4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="63">
+      <c r="P4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="54">
         <v>44292</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="54">
         <v>44288</v>
       </c>
-      <c r="S4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="U4" s="63">
+      <c r="S4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" s="54">
         <v>44312</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="58">
         <v>44358</v>
       </c>
-      <c r="W4" s="63">
+      <c r="W4" s="54">
         <v>44361</v>
       </c>
-      <c r="X4" s="63">
+      <c r="X4" s="54">
         <v>44329</v>
       </c>
-      <c r="Y4" s="63">
+      <c r="Y4" s="54">
         <v>44312</v>
       </c>
-      <c r="Z4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA4" s="63">
+      <c r="Z4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="54">
         <v>44293</v>
       </c>
-      <c r="AB4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE4" s="67">
+      <c r="AB4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" s="58">
         <v>44344</v>
       </c>
-      <c r="AF4" s="63">
+      <c r="AF4" s="54">
         <v>44315</v>
       </c>
-      <c r="AG4" s="69">
+      <c r="AG4" s="60">
         <v>44287</v>
       </c>
-      <c r="AH4" s="63">
+      <c r="AH4" s="54">
         <v>44314</v>
       </c>
-      <c r="AI4" s="63">
+      <c r="AI4" s="54">
         <v>44293</v>
       </c>
-      <c r="AJ4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL4" s="63">
+      <c r="AJ4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL4" s="54">
         <v>44327</v>
       </c>
-      <c r="AM4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP4" s="63">
+      <c r="AM4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP4" s="54">
         <v>44287</v>
       </c>
-      <c r="AQ4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS4" s="63">
+      <c r="AQ4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS4" s="54">
         <v>44315</v>
       </c>
-      <c r="AT4" s="63">
+      <c r="AT4" s="54">
         <v>44340</v>
       </c>
-      <c r="AU4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV4" s="63">
+      <c r="AU4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV4" s="54">
         <v>44291</v>
       </c>
-      <c r="AW4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX4" s="63">
+      <c r="AW4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX4" s="54">
         <v>44343</v>
       </c>
-      <c r="AY4" s="63">
+      <c r="AY4" s="54">
         <v>44288</v>
       </c>
-      <c r="AZ4" s="63">
+      <c r="AZ4" s="54">
         <v>44294</v>
       </c>
-      <c r="BA4" s="63">
+      <c r="BA4" s="54">
         <v>44288</v>
       </c>
-      <c r="BB4" s="63">
+      <c r="BB4" s="54">
         <v>44288</v>
       </c>
-      <c r="BC4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF4" s="68" t="s">
-        <v>122</v>
+      <c r="BC4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF4" s="59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,1304 +3129,1304 @@
       <c r="B5" s="17">
         <v>43497</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54">
         <v>44317</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66">
+      <c r="E5" s="61"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57">
         <v>44315</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="63">
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="54">
         <v>44348</v>
       </c>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="63">
+      <c r="P5" s="61"/>
+      <c r="Q5" s="54">
         <v>44320</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="54">
         <v>44291</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="63">
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="54">
         <v>44347</v>
       </c>
-      <c r="V5" s="67">
+      <c r="V5" s="58">
         <v>44361</v>
       </c>
-      <c r="W5" s="63">
+      <c r="W5" s="54">
         <v>44362</v>
       </c>
-      <c r="X5" s="63">
+      <c r="X5" s="54">
         <v>44330</v>
       </c>
-      <c r="Y5" s="63">
+      <c r="Y5" s="54">
         <v>44313</v>
       </c>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="63">
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="54">
         <v>44300</v>
       </c>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="67">
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="58">
         <v>44348</v>
       </c>
-      <c r="AF5" s="63">
+      <c r="AF5" s="54">
         <v>44316</v>
       </c>
-      <c r="AG5" s="69">
+      <c r="AG5" s="60">
         <v>44288</v>
       </c>
-      <c r="AH5" s="63">
+      <c r="AH5" s="54">
         <v>44315</v>
       </c>
-      <c r="AI5" s="63">
+      <c r="AI5" s="54">
         <v>44294</v>
       </c>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="63">
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="54">
         <v>44347</v>
       </c>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="63">
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="54">
         <v>44288</v>
       </c>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="63">
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54">
         <v>44316</v>
       </c>
-      <c r="AT5" s="63">
+      <c r="AT5" s="54">
         <v>44341</v>
       </c>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="63">
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="54">
         <v>44292</v>
       </c>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="63">
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="54">
         <v>44344</v>
       </c>
-      <c r="AY5" s="63">
+      <c r="AY5" s="54">
         <v>44347</v>
       </c>
-      <c r="AZ5" s="63">
+      <c r="AZ5" s="54">
         <v>44295</v>
       </c>
-      <c r="BA5" s="63">
+      <c r="BA5" s="54">
         <v>44358</v>
       </c>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="71"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
     </row>
     <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="19">
         <v>43540</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66">
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57">
         <v>44316</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="63">
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="54">
         <v>44349</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="63">
+      <c r="P6" s="63"/>
+      <c r="Q6" s="54">
         <v>44348</v>
       </c>
-      <c r="R6" s="63">
+      <c r="R6" s="54">
         <v>44295</v>
       </c>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="63">
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="54">
         <v>44348</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="58">
         <v>44362</v>
       </c>
-      <c r="W6" s="63">
+      <c r="W6" s="54">
         <v>44363</v>
       </c>
-      <c r="X6" s="63">
+      <c r="X6" s="54">
         <v>44336</v>
       </c>
-      <c r="Y6" s="63">
+      <c r="Y6" s="54">
         <v>44314</v>
       </c>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="63">
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="54">
         <v>44307</v>
       </c>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="69">
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="60">
         <v>44291</v>
       </c>
-      <c r="AH6" s="63">
+      <c r="AH6" s="54">
         <v>44319</v>
       </c>
-      <c r="AI6" s="63">
+      <c r="AI6" s="54">
         <v>44295</v>
       </c>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="63">
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="54">
         <v>44348</v>
       </c>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="63">
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="54">
         <v>44312</v>
       </c>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="63">
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="54">
         <v>44342</v>
       </c>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="63">
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="54">
         <v>44293</v>
       </c>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="63">
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="54">
         <v>44375</v>
       </c>
-      <c r="AY6" s="72"/>
-      <c r="AZ6" s="63">
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="54">
         <v>44319</v>
       </c>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="72"/>
-      <c r="BD6" s="72"/>
-      <c r="BE6" s="72"/>
-      <c r="BF6" s="72"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="63"/>
+      <c r="BF6" s="63"/>
     </row>
     <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="20">
         <v>43576</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57">
         <v>44319</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="63">
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="54">
         <v>44350</v>
       </c>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="63">
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="54">
         <v>44302</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="63">
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="54">
         <v>44349</v>
       </c>
-      <c r="V7" s="67">
+      <c r="V7" s="58">
         <v>44363</v>
       </c>
-      <c r="W7" s="63">
+      <c r="W7" s="54">
         <v>44364</v>
       </c>
-      <c r="X7" s="63">
+      <c r="X7" s="54">
         <v>44337</v>
       </c>
-      <c r="Y7" s="63">
+      <c r="Y7" s="54">
         <v>44315</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="63">
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="54">
         <v>44314</v>
       </c>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="69">
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="60">
         <v>44309</v>
       </c>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="63">
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="54">
         <v>44313</v>
       </c>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="63">
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="54">
         <v>44343</v>
       </c>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="63">
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="54">
         <v>44294</v>
       </c>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="63">
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="54">
         <v>44376</v>
       </c>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="63">
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="54">
         <v>44341</v>
       </c>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="62"/>
     </row>
     <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="22">
         <v>43604</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65">
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56">
         <v>44320</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="63">
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="54">
         <v>44351</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="63">
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="54">
         <v>44309</v>
       </c>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="63">
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="54">
         <v>44350</v>
       </c>
-      <c r="V8" s="67">
+      <c r="V8" s="58">
         <v>44364</v>
       </c>
-      <c r="W8" s="63">
+      <c r="W8" s="54">
         <v>44365</v>
       </c>
-      <c r="X8" s="63">
+      <c r="X8" s="54">
         <v>44343</v>
       </c>
-      <c r="Y8" s="63">
+      <c r="Y8" s="54">
         <v>44316</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="63">
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="54">
         <v>44321</v>
       </c>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="69">
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="60">
         <v>44323</v>
       </c>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="63">
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="54">
         <v>44314</v>
       </c>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="63">
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="54">
         <v>44344</v>
       </c>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="63">
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="54">
         <v>44295</v>
       </c>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="63">
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="54">
         <v>44377</v>
       </c>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="63">
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="54">
         <v>44358</v>
       </c>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
     </row>
     <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65">
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56">
         <v>44321</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="63">
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="54">
         <v>44316</v>
       </c>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="63">
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="54">
         <v>44351</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="58">
         <v>44365</v>
       </c>
-      <c r="W9" s="73">
+      <c r="W9" s="64">
         <v>44369</v>
       </c>
-      <c r="X9" s="63">
+      <c r="X9" s="54">
         <v>44344</v>
       </c>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="63">
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="54">
         <v>44328</v>
       </c>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="69">
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="60">
         <v>44351</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="70"/>
-      <c r="AO9" s="70"/>
-      <c r="AP9" s="63">
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="54">
         <v>44315</v>
       </c>
-      <c r="AQ9" s="70"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="70"/>
-      <c r="AT9" s="63">
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="54">
         <v>44375</v>
       </c>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="63">
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="54">
         <v>44319</v>
       </c>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
-      <c r="BC9" s="70"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="71"/>
-      <c r="BF9" s="71"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
     </row>
     <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56">
         <v>44322</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="63">
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="54">
         <v>44323</v>
       </c>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="63">
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="54">
         <v>44352</v>
       </c>
-      <c r="V10" s="67"/>
-      <c r="W10" s="73">
+      <c r="V10" s="58"/>
+      <c r="W10" s="64">
         <v>44370</v>
       </c>
-      <c r="X10" s="63">
+      <c r="X10" s="54">
         <v>44349</v>
       </c>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="63">
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="54">
         <v>44335</v>
       </c>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="63"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="63">
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="54">
         <v>44316</v>
       </c>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="63">
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="54">
         <v>44376</v>
       </c>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="63">
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="54">
         <v>44320</v>
       </c>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="72"/>
-      <c r="BC10" s="72"/>
-      <c r="BD10" s="72"/>
-      <c r="BE10" s="72"/>
-      <c r="BF10" s="72"/>
+      <c r="AW10" s="63"/>
+      <c r="AX10" s="54"/>
+      <c r="AY10" s="63"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="63"/>
+      <c r="BB10" s="63"/>
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="63"/>
+      <c r="BE10" s="63"/>
+      <c r="BF10" s="63"/>
     </row>
     <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56">
         <v>44323</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="63">
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="54">
         <v>44326</v>
       </c>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="63">
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="54">
         <v>44353</v>
       </c>
-      <c r="V11" s="67"/>
-      <c r="W11" s="73">
+      <c r="V11" s="58"/>
+      <c r="W11" s="64">
         <v>44371</v>
       </c>
-      <c r="X11" s="63">
+      <c r="X11" s="54">
         <v>44350</v>
       </c>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="63">
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="54">
         <v>44342</v>
       </c>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="70"/>
-      <c r="AK11" s="70"/>
-      <c r="AL11" s="63"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="70"/>
-      <c r="AO11" s="70"/>
-      <c r="AP11" s="63">
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="54">
         <v>44340</v>
       </c>
-      <c r="AQ11" s="70"/>
-      <c r="AR11" s="70"/>
-      <c r="AS11" s="70"/>
-      <c r="AT11" s="63">
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="54">
         <v>44377</v>
       </c>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="63">
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="54">
         <v>44321</v>
       </c>
-      <c r="AW11" s="70"/>
-      <c r="AX11" s="63"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="70"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="71"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
     </row>
     <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="63">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="54">
         <v>44330</v>
       </c>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="63">
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="54">
         <v>44354</v>
       </c>
-      <c r="V12" s="67"/>
-      <c r="W12" s="73">
+      <c r="V12" s="58"/>
+      <c r="W12" s="64">
         <v>44372</v>
       </c>
-      <c r="X12" s="63">
+      <c r="X12" s="54">
         <v>44351</v>
       </c>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="63">
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="54">
         <v>44349</v>
       </c>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="63">
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="54">
         <v>44341</v>
       </c>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="63">
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="63"/>
+      <c r="AU12" s="63"/>
+      <c r="AV12" s="54">
         <v>44322</v>
       </c>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="72"/>
-      <c r="BA12" s="72"/>
-      <c r="BB12" s="72"/>
-      <c r="BC12" s="72"/>
-      <c r="BD12" s="72"/>
-      <c r="BE12" s="72"/>
-      <c r="BF12" s="72"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="54"/>
+      <c r="AY12" s="63"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
+      <c r="BF12" s="63"/>
     </row>
     <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="63">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="54">
         <v>44337</v>
       </c>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="63">
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="54">
         <v>44355</v>
       </c>
-      <c r="V13" s="70"/>
-      <c r="W13" s="73">
+      <c r="V13" s="61"/>
+      <c r="W13" s="64">
         <v>44373</v>
       </c>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="63">
+      <c r="X13" s="54"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="54">
         <v>44356</v>
       </c>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="70"/>
-      <c r="AL13" s="70"/>
-      <c r="AM13" s="70"/>
-      <c r="AN13" s="70"/>
-      <c r="AO13" s="70"/>
-      <c r="AP13" s="63">
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="54">
         <v>44342</v>
       </c>
-      <c r="AQ13" s="70"/>
-      <c r="AR13" s="70"/>
-      <c r="AS13" s="70"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="63">
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="54">
         <v>44323</v>
       </c>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="70"/>
-      <c r="BD13" s="70"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="71"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="62"/>
+      <c r="BF13" s="62"/>
     </row>
     <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="63">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="54">
         <v>44344</v>
       </c>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="73">
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64">
         <v>44374</v>
       </c>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="63">
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="54">
         <v>44363</v>
       </c>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="63">
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="54">
         <v>44343</v>
       </c>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="63">
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="63"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="54">
         <v>44354</v>
       </c>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
-      <c r="BB14" s="72"/>
-      <c r="BC14" s="72"/>
-      <c r="BD14" s="72"/>
-      <c r="BE14" s="72"/>
-      <c r="BF14" s="72"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="63"/>
+      <c r="BE14" s="63"/>
+      <c r="BF14" s="63"/>
     </row>
     <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="63">
+      <c r="C15" s="61"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="54">
         <v>44347</v>
       </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="63">
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="54">
         <v>44370</v>
       </c>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="70"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="70"/>
-      <c r="AO15" s="70"/>
-      <c r="AP15" s="63">
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="54">
         <v>44344</v>
       </c>
-      <c r="AQ15" s="70"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="63">
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="61"/>
+      <c r="AV15" s="54">
         <v>44355</v>
       </c>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="70"/>
-      <c r="BD15" s="70"/>
-      <c r="BE15" s="71"/>
-      <c r="BF15" s="71"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="62"/>
     </row>
     <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="63">
+      <c r="C16" s="63"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="54">
         <v>44348</v>
       </c>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="63">
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="54">
         <v>44377</v>
       </c>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="63">
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="54">
         <v>44375</v>
       </c>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="63">
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="54">
         <v>44356</v>
       </c>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="72"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="63"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
     </row>
     <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="63">
+      <c r="C17" s="61"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="54">
         <v>44349</v>
       </c>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="70"/>
-      <c r="AM17" s="70"/>
-      <c r="AN17" s="70"/>
-      <c r="AO17" s="70"/>
-      <c r="AP17" s="63">
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="54">
         <v>44376</v>
       </c>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="70"/>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="63">
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="61"/>
+      <c r="AV17" s="54">
         <v>44357</v>
       </c>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
-      <c r="BC17" s="70"/>
-      <c r="BD17" s="70"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="71"/>
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="61"/>
+      <c r="AY17" s="61"/>
+      <c r="AZ17" s="61"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
+      <c r="BC17" s="61"/>
+      <c r="BD17" s="61"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
     </row>
     <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="63">
+      <c r="C18" s="63"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="54">
         <v>44351</v>
       </c>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="63">
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="54">
         <v>44377</v>
       </c>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="63">
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="54">
         <v>44358</v>
       </c>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
-      <c r="BB18" s="72"/>
-      <c r="BC18" s="72"/>
-      <c r="BD18" s="72"/>
-      <c r="BE18" s="72"/>
-      <c r="BF18" s="72"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
+      <c r="BC18" s="63"/>
+      <c r="BD18" s="63"/>
+      <c r="BE18" s="63"/>
+      <c r="BF18" s="63"/>
     </row>
     <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="63">
+      <c r="C19" s="61"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="54">
         <v>44358</v>
       </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="70"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="70"/>
-      <c r="AM19" s="70"/>
-      <c r="AN19" s="70"/>
-      <c r="AO19" s="70"/>
-      <c r="AP19" s="70"/>
-      <c r="AQ19" s="70"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="70"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="70"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
-      <c r="BC19" s="70"/>
-      <c r="BD19" s="70"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="71"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61"/>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
     </row>
     <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="63">
+      <c r="C20" s="63"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="54">
         <v>44365</v>
       </c>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="72"/>
-      <c r="BA20" s="72"/>
-      <c r="BB20" s="72"/>
-      <c r="BC20" s="72"/>
-      <c r="BD20" s="72"/>
-      <c r="BE20" s="72"/>
-      <c r="BF20" s="72"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="AZ20" s="63"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
     </row>
     <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="63">
+      <c r="C21" s="61"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="54">
         <v>44372</v>
       </c>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="70"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="70"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="70"/>
-      <c r="AO21" s="70"/>
-      <c r="AP21" s="70"/>
-      <c r="AQ21" s="70"/>
-      <c r="AR21" s="70"/>
-      <c r="AS21" s="70"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="70"/>
-      <c r="BD21" s="70"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="71"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="62"/>
+      <c r="BF21" s="62"/>
     </row>
     <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
@@ -6015,10 +6197,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="33"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -6045,7 +6227,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="74">
+      <c r="B4" s="65">
         <v>44301</v>
       </c>
       <c r="C4" s="34"/>
@@ -6054,7 +6236,7 @@
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
-      <c r="B5" s="75">
+      <c r="B5" s="66">
         <v>44347</v>
       </c>
       <c r="C5" s="34"/>
@@ -6063,7 +6245,7 @@
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
-      <c r="B6" s="75">
+      <c r="B6" s="66">
         <v>44364</v>
       </c>
       <c r="C6" s="34"/>
@@ -6112,10 +6294,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV97"/>
+  <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6124,21 +6306,21 @@
     <col min="2" max="2" width="23.5" style="40" customWidth="1"/>
     <col min="3" max="3" width="11" style="40" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="23" style="61" customWidth="1"/>
+    <col min="5" max="5" width="23" style="52" customWidth="1"/>
     <col min="6" max="256" width="11" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="41"/>
@@ -6147,22 +6329,16 @@
       <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
@@ -6170,25 +6346,29 @@
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="49">
-        <v>10</v>
-      </c>
-      <c r="E3" s="59">
-        <v>50</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+    <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="83"/>
+      <c r="B3" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="86" t="s">
+        <v>127</v>
+      </c>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
@@ -6196,23 +6376,31 @@
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="53">
-        <v>0</v>
-      </c>
-      <c r="E4" s="76">
-        <v>24</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="91">
+        <v>10</v>
+      </c>
+      <c r="E4" s="92">
+        <v>50</v>
+      </c>
+      <c r="F4" s="92">
+        <v>8</v>
+      </c>
+      <c r="G4" s="92">
+        <v>60</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>128</v>
+      </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
@@ -6221,22 +6409,28 @@
       <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="53">
-        <v>0</v>
-      </c>
-      <c r="E5" s="77">
-        <v>7</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="67">
+        <v>24</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
@@ -6245,22 +6439,28 @@
       <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="53">
-        <v>0</v>
-      </c>
-      <c r="E6" s="77">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="68">
+        <v>7</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
@@ -6269,22 +6469,28 @@
       <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="53">
-        <v>0</v>
-      </c>
-      <c r="E7" s="77">
-        <v>15</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="E7" s="68">
+        <v>4</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
@@ -6293,22 +6499,28 @@
       <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="53">
-        <v>0</v>
-      </c>
-      <c r="E8" s="77">
-        <v>8</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0</v>
+      </c>
+      <c r="E8" s="68">
+        <v>15</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -6317,22 +6529,28 @@
       <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="53">
-        <v>0</v>
-      </c>
-      <c r="E9" s="77">
-        <v>4</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0</v>
+      </c>
+      <c r="E9" s="68">
+        <v>8</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
@@ -6341,22 +6559,28 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="53">
-        <v>0</v>
-      </c>
-      <c r="E10" s="77">
-        <v>30</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0</v>
+      </c>
+      <c r="E10" s="68">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
@@ -6365,22 +6589,28 @@
       <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="53">
-        <v>0</v>
-      </c>
-      <c r="E11" s="77">
-        <v>41</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0</v>
+      </c>
+      <c r="E11" s="68">
+        <v>30</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0</v>
+      </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
@@ -6389,22 +6619,28 @@
       <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="53">
-        <v>0</v>
-      </c>
-      <c r="E12" s="77">
-        <v>25</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="E12" s="68">
+        <v>41</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0</v>
+      </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
@@ -6413,22 +6649,28 @@
       <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="53">
-        <v>0</v>
-      </c>
-      <c r="E13" s="77">
-        <v>23</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0</v>
+      </c>
+      <c r="E13" s="68">
+        <v>25</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
@@ -6437,22 +6679,28 @@
       <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="53">
-        <v>0</v>
-      </c>
-      <c r="E14" s="77">
-        <v>60</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0</v>
+      </c>
+      <c r="E14" s="68">
+        <v>23</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0</v>
+      </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -6461,22 +6709,28 @@
       <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="53">
-        <v>0</v>
-      </c>
-      <c r="E15" s="77">
+      <c r="A15" s="48"/>
+      <c r="B15" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="45">
+        <v>0</v>
+      </c>
+      <c r="E15" s="68">
         <v>60</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="F15" s="34">
+        <v>0</v>
+      </c>
+      <c r="G15" s="34">
+        <v>0</v>
+      </c>
+      <c r="H15" s="34">
+        <v>0</v>
+      </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
@@ -6485,22 +6739,28 @@
       <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="53">
-        <v>0</v>
-      </c>
-      <c r="E16" s="77">
-        <v>118</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="45">
+        <v>0</v>
+      </c>
+      <c r="E16" s="68">
+        <v>60</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34">
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0</v>
+      </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -6509,22 +6769,28 @@
       <c r="N16" s="34"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="53">
-        <v>0</v>
-      </c>
-      <c r="E17" s="77">
-        <v>170</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="E17" s="68">
+        <v>118</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0</v>
+      </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
@@ -6533,22 +6799,28 @@
       <c r="N17" s="34"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="53">
-        <v>0</v>
-      </c>
-      <c r="E18" s="77">
-        <v>117</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="45">
+        <v>0</v>
+      </c>
+      <c r="E18" s="68">
+        <v>170</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
@@ -6557,22 +6829,28 @@
       <c r="N18" s="34"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="53">
-        <v>0</v>
-      </c>
-      <c r="E19" s="77">
-        <v>60</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="45">
+        <v>0</v>
+      </c>
+      <c r="E19" s="68">
+        <v>117</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0</v>
+      </c>
+      <c r="H19" s="34">
+        <v>0</v>
+      </c>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
@@ -6581,22 +6859,28 @@
       <c r="N19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="53">
-        <v>0</v>
-      </c>
-      <c r="E20" s="77">
+      <c r="A20" s="48"/>
+      <c r="B20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="45">
+        <v>0</v>
+      </c>
+      <c r="E20" s="68">
         <v>60</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="F20" s="34">
+        <v>0</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0</v>
+      </c>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
@@ -6605,22 +6889,28 @@
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="53">
-        <v>0</v>
-      </c>
-      <c r="E21" s="77">
-        <v>50</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="45">
+        <v>0</v>
+      </c>
+      <c r="E21" s="68">
+        <v>60</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0</v>
+      </c>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
@@ -6629,22 +6919,28 @@
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="53">
-        <v>0</v>
-      </c>
-      <c r="E22" s="77">
-        <v>57</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="45">
+        <v>0</v>
+      </c>
+      <c r="E22" s="68">
+        <v>50</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
@@ -6653,22 +6949,28 @@
       <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="53">
-        <v>0</v>
-      </c>
-      <c r="E23" s="77">
-        <v>26</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="45">
+        <v>0</v>
+      </c>
+      <c r="E23" s="68">
+        <v>57</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
@@ -6677,22 +6979,28 @@
       <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="53">
-        <v>0</v>
-      </c>
-      <c r="E24" s="77">
-        <v>83</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="45">
+        <v>0</v>
+      </c>
+      <c r="E24" s="68">
+        <v>26</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
@@ -6701,22 +7009,28 @@
       <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="53">
-        <v>0</v>
-      </c>
-      <c r="E25" s="77">
-        <v>37</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="45">
+        <v>0</v>
+      </c>
+      <c r="E25" s="68">
+        <v>83</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0</v>
+      </c>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
@@ -6725,22 +7039,28 @@
       <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="53">
-        <v>0</v>
-      </c>
-      <c r="E26" s="77">
+      <c r="A26" s="48"/>
+      <c r="B26" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="D26" s="45">
+        <v>0</v>
+      </c>
+      <c r="E26" s="68">
+        <v>37</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0</v>
+      </c>
+      <c r="G26" s="34">
+        <v>0</v>
+      </c>
+      <c r="H26" s="34">
+        <v>0</v>
+      </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
@@ -6749,22 +7069,28 @@
       <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="53">
-        <v>0</v>
-      </c>
-      <c r="E27" s="77">
-        <v>60</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="45">
+        <v>0</v>
+      </c>
+      <c r="E27" s="68">
+        <v>25</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0</v>
+      </c>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
@@ -6773,22 +7099,28 @@
       <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="53">
-        <v>0</v>
-      </c>
-      <c r="E28" s="77">
-        <v>39</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="45">
+        <v>0</v>
+      </c>
+      <c r="E28" s="68">
+        <v>60</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0</v>
+      </c>
+      <c r="G28" s="34">
+        <v>0</v>
+      </c>
+      <c r="H28" s="34">
+        <v>0</v>
+      </c>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
@@ -6797,22 +7129,28 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="53">
-        <v>0</v>
-      </c>
-      <c r="E29" s="77">
-        <v>30</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="45">
+        <v>0</v>
+      </c>
+      <c r="E29" s="68">
+        <v>39</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0</v>
+      </c>
+      <c r="H29" s="34">
+        <v>0</v>
+      </c>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
@@ -6821,22 +7159,28 @@
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="52" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="45">
+        <v>0</v>
+      </c>
+      <c r="E30" s="68">
         <v>30</v>
       </c>
-      <c r="D30" s="53">
-        <v>0</v>
-      </c>
-      <c r="E30" s="77">
-        <v>25</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="F30" s="34">
+        <v>0</v>
+      </c>
+      <c r="G30" s="34">
+        <v>0</v>
+      </c>
+      <c r="H30" s="34">
+        <v>0</v>
+      </c>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
@@ -6845,22 +7189,28 @@
       <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="53">
-        <v>0</v>
-      </c>
-      <c r="E31" s="77">
-        <v>10</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="45">
+        <v>0</v>
+      </c>
+      <c r="E31" s="68">
+        <v>25</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0</v>
+      </c>
+      <c r="H31" s="34">
+        <v>0</v>
+      </c>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
@@ -6869,22 +7219,28 @@
       <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="53">
-        <v>0</v>
-      </c>
-      <c r="E32" s="77">
-        <v>5</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="45">
+        <v>0</v>
+      </c>
+      <c r="E32" s="68">
+        <v>10</v>
+      </c>
+      <c r="F32" s="34">
+        <v>0</v>
+      </c>
+      <c r="G32" s="34">
+        <v>0</v>
+      </c>
+      <c r="H32" s="34">
+        <v>0</v>
+      </c>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
@@ -6893,22 +7249,28 @@
       <c r="N32" s="34"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="53">
-        <v>0</v>
-      </c>
-      <c r="E33" s="77">
-        <v>19</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="45">
+        <v>0</v>
+      </c>
+      <c r="E33" s="68">
+        <v>5</v>
+      </c>
+      <c r="F33" s="34">
+        <v>0</v>
+      </c>
+      <c r="G33" s="34">
+        <v>0</v>
+      </c>
+      <c r="H33" s="34">
+        <v>0</v>
+      </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
@@ -6917,22 +7279,28 @@
       <c r="N33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="53">
-        <v>0</v>
-      </c>
-      <c r="E34" s="77">
-        <v>2</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="45">
+        <v>0</v>
+      </c>
+      <c r="E34" s="68">
+        <v>19</v>
+      </c>
+      <c r="F34" s="34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="34">
+        <v>0</v>
+      </c>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
@@ -6941,22 +7309,28 @@
       <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="53">
-        <v>0</v>
-      </c>
-      <c r="E35" s="77">
-        <v>0</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0</v>
+      </c>
+      <c r="E35" s="68">
+        <v>2</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0</v>
+      </c>
+      <c r="G35" s="34">
+        <v>0</v>
+      </c>
+      <c r="H35" s="34">
+        <v>0</v>
+      </c>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
@@ -6965,22 +7339,28 @@
       <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="53">
-        <v>0</v>
-      </c>
-      <c r="E36" s="77">
-        <v>3</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="45">
+        <v>0</v>
+      </c>
+      <c r="E36" s="68">
+        <v>0</v>
+      </c>
+      <c r="F36" s="34">
+        <v>0</v>
+      </c>
+      <c r="G36" s="34">
+        <v>0</v>
+      </c>
+      <c r="H36" s="34">
+        <v>0</v>
+      </c>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
@@ -6989,22 +7369,28 @@
       <c r="N36" s="34"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="53">
-        <v>0</v>
-      </c>
-      <c r="E37" s="77">
-        <v>51</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="45">
+        <v>0</v>
+      </c>
+      <c r="E37" s="68">
+        <v>3</v>
+      </c>
+      <c r="F37" s="34">
+        <v>0</v>
+      </c>
+      <c r="G37" s="34">
+        <v>0</v>
+      </c>
+      <c r="H37" s="34">
+        <v>0</v>
+      </c>
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
@@ -7013,22 +7399,28 @@
       <c r="N37" s="34"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="53">
-        <v>0</v>
-      </c>
-      <c r="E38" s="77">
-        <v>12</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="45">
+        <v>0</v>
+      </c>
+      <c r="E38" s="68">
+        <v>51</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0</v>
+      </c>
+      <c r="G38" s="34">
+        <v>0</v>
+      </c>
+      <c r="H38" s="34">
+        <v>0</v>
+      </c>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
@@ -7037,22 +7429,28 @@
       <c r="N38" s="34"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="53">
-        <v>0</v>
-      </c>
-      <c r="E39" s="77">
-        <v>5</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="45">
+        <v>0</v>
+      </c>
+      <c r="E39" s="68">
+        <v>12</v>
+      </c>
+      <c r="F39" s="34">
+        <v>0</v>
+      </c>
+      <c r="G39" s="34">
+        <v>0</v>
+      </c>
+      <c r="H39" s="34">
+        <v>0</v>
+      </c>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -7061,22 +7459,28 @@
       <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="53">
-        <v>0</v>
-      </c>
-      <c r="E40" s="77">
-        <v>2</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="45">
+        <v>0</v>
+      </c>
+      <c r="E40" s="68">
+        <v>5</v>
+      </c>
+      <c r="F40" s="34">
+        <v>0</v>
+      </c>
+      <c r="G40" s="34">
+        <v>0</v>
+      </c>
+      <c r="H40" s="34">
+        <v>0</v>
+      </c>
       <c r="I40" s="34"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
@@ -7085,22 +7489,28 @@
       <c r="N40" s="34"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="53">
-        <v>0</v>
-      </c>
-      <c r="E41" s="77">
-        <v>55</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="45">
+        <v>0</v>
+      </c>
+      <c r="E41" s="68">
+        <v>2</v>
+      </c>
+      <c r="F41" s="34">
+        <v>0</v>
+      </c>
+      <c r="G41" s="34">
+        <v>0</v>
+      </c>
+      <c r="H41" s="34">
+        <v>0</v>
+      </c>
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
@@ -7109,22 +7519,28 @@
       <c r="N41" s="34"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="53">
-        <v>0</v>
-      </c>
-      <c r="E42" s="77">
-        <v>53</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="45">
+        <v>0</v>
+      </c>
+      <c r="E42" s="68">
+        <v>55</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0</v>
+      </c>
+      <c r="G42" s="34">
+        <v>0</v>
+      </c>
+      <c r="H42" s="34">
+        <v>0</v>
+      </c>
       <c r="I42" s="34"/>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
@@ -7133,22 +7549,28 @@
       <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="53">
-        <v>0</v>
-      </c>
-      <c r="E43" s="77">
-        <v>35</v>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="45">
+        <v>0</v>
+      </c>
+      <c r="E43" s="68">
+        <v>53</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0</v>
+      </c>
+      <c r="G43" s="34">
+        <v>0</v>
+      </c>
+      <c r="H43" s="34">
+        <v>0</v>
+      </c>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
       <c r="K43" s="34"/>
@@ -7157,22 +7579,28 @@
       <c r="N43" s="34"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="53">
-        <v>0</v>
-      </c>
-      <c r="E44" s="77">
-        <v>28</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="45">
+        <v>0</v>
+      </c>
+      <c r="E44" s="68">
+        <v>35</v>
+      </c>
+      <c r="F44" s="34">
+        <v>0</v>
+      </c>
+      <c r="G44" s="34">
+        <v>0</v>
+      </c>
+      <c r="H44" s="34">
+        <v>0</v>
+      </c>
       <c r="I44" s="34"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
@@ -7181,22 +7609,28 @@
       <c r="N44" s="34"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="53">
-        <v>0</v>
-      </c>
-      <c r="E45" s="77">
-        <v>3</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="68">
+        <v>28</v>
+      </c>
+      <c r="F45" s="34">
+        <v>0</v>
+      </c>
+      <c r="G45" s="34">
+        <v>0</v>
+      </c>
+      <c r="H45" s="34">
+        <v>0</v>
+      </c>
       <c r="I45" s="34"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
@@ -7205,22 +7639,28 @@
       <c r="N45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="53">
-        <v>0</v>
-      </c>
-      <c r="E46" s="77">
-        <v>33</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="45">
+        <v>0</v>
+      </c>
+      <c r="E46" s="68">
+        <v>3</v>
+      </c>
+      <c r="F46" s="34">
+        <v>0</v>
+      </c>
+      <c r="G46" s="34">
+        <v>0</v>
+      </c>
+      <c r="H46" s="34">
+        <v>0</v>
+      </c>
       <c r="I46" s="34"/>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
@@ -7229,22 +7669,28 @@
       <c r="N46" s="34"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="53">
-        <v>0</v>
-      </c>
-      <c r="E47" s="77">
-        <v>90</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="45">
+        <v>0</v>
+      </c>
+      <c r="E47" s="68">
+        <v>33</v>
+      </c>
+      <c r="F47" s="34">
+        <v>0</v>
+      </c>
+      <c r="G47" s="34">
+        <v>0</v>
+      </c>
+      <c r="H47" s="34">
+        <v>0</v>
+      </c>
       <c r="I47" s="34"/>
       <c r="J47" s="34"/>
       <c r="K47" s="34"/>
@@ -7253,22 +7699,28 @@
       <c r="N47" s="34"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="53">
-        <v>0</v>
-      </c>
-      <c r="E48" s="77">
-        <v>32</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="45">
+        <v>0</v>
+      </c>
+      <c r="E48" s="68">
+        <v>90</v>
+      </c>
+      <c r="F48" s="34">
+        <v>0</v>
+      </c>
+      <c r="G48" s="34">
+        <v>0</v>
+      </c>
+      <c r="H48" s="34">
+        <v>0</v>
+      </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
@@ -7277,22 +7729,28 @@
       <c r="N48" s="34"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="53">
-        <v>0</v>
-      </c>
-      <c r="E49" s="77">
-        <v>35</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="45">
+        <v>0</v>
+      </c>
+      <c r="E49" s="68">
+        <v>32</v>
+      </c>
+      <c r="F49" s="34">
+        <v>0</v>
+      </c>
+      <c r="G49" s="34">
+        <v>0</v>
+      </c>
+      <c r="H49" s="34">
+        <v>0</v>
+      </c>
       <c r="I49" s="34"/>
       <c r="J49" s="34"/>
       <c r="K49" s="34"/>
@@ -7301,22 +7759,28 @@
       <c r="N49" s="34"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="53">
-        <v>0</v>
-      </c>
-      <c r="E50" s="77">
-        <v>8</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="45">
+        <v>0</v>
+      </c>
+      <c r="E50" s="68">
+        <v>35</v>
+      </c>
+      <c r="F50" s="34">
+        <v>0</v>
+      </c>
+      <c r="G50" s="34">
+        <v>0</v>
+      </c>
+      <c r="H50" s="34">
+        <v>0</v>
+      </c>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
@@ -7325,22 +7789,28 @@
       <c r="N50" s="34"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
-      <c r="B51" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="53">
-        <v>0</v>
-      </c>
-      <c r="E51" s="77">
-        <v>16</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="45">
+        <v>0</v>
+      </c>
+      <c r="E51" s="68">
+        <v>8</v>
+      </c>
+      <c r="F51" s="34">
+        <v>0</v>
+      </c>
+      <c r="G51" s="34">
+        <v>0</v>
+      </c>
+      <c r="H51" s="34">
+        <v>0</v>
+      </c>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
@@ -7349,22 +7819,28 @@
       <c r="N51" s="34"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="53">
-        <v>0</v>
-      </c>
-      <c r="E52" s="77">
-        <v>15</v>
-      </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="45">
+        <v>0</v>
+      </c>
+      <c r="E52" s="68">
+        <v>16</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0</v>
+      </c>
+      <c r="G52" s="34">
+        <v>0</v>
+      </c>
+      <c r="H52" s="34">
+        <v>0</v>
+      </c>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
@@ -7373,22 +7849,28 @@
       <c r="N52" s="34"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="53">
-        <v>0</v>
-      </c>
-      <c r="E53" s="77">
-        <v>1</v>
-      </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="45">
+        <v>0</v>
+      </c>
+      <c r="E53" s="68">
+        <v>15</v>
+      </c>
+      <c r="F53" s="34">
+        <v>0</v>
+      </c>
+      <c r="G53" s="34">
+        <v>0</v>
+      </c>
+      <c r="H53" s="34">
+        <v>0</v>
+      </c>
       <c r="I53" s="34"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
@@ -7397,22 +7879,28 @@
       <c r="N53" s="34"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="53">
-        <v>0</v>
-      </c>
-      <c r="E54" s="77">
-        <v>10</v>
-      </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="45">
+        <v>0</v>
+      </c>
+      <c r="E54" s="68">
+        <v>1</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0</v>
+      </c>
+      <c r="G54" s="34">
+        <v>0</v>
+      </c>
+      <c r="H54" s="34">
+        <v>0</v>
+      </c>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
@@ -7421,22 +7909,28 @@
       <c r="N54" s="34"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
-      <c r="B55" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="53">
-        <v>0</v>
-      </c>
-      <c r="E55" s="77">
-        <v>166</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="45">
+        <v>0</v>
+      </c>
+      <c r="E55" s="68">
+        <v>10</v>
+      </c>
+      <c r="F55" s="34">
+        <v>0</v>
+      </c>
+      <c r="G55" s="34">
+        <v>0</v>
+      </c>
+      <c r="H55" s="34">
+        <v>0</v>
+      </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
@@ -7445,22 +7939,28 @@
       <c r="N55" s="34"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
-      <c r="B56" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="53">
-        <v>0</v>
-      </c>
-      <c r="E56" s="77">
-        <v>3</v>
-      </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="45">
+        <v>0</v>
+      </c>
+      <c r="E56" s="68">
+        <v>166</v>
+      </c>
+      <c r="F56" s="34">
+        <v>0</v>
+      </c>
+      <c r="G56" s="34">
+        <v>0</v>
+      </c>
+      <c r="H56" s="34">
+        <v>0</v>
+      </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
@@ -7469,22 +7969,28 @@
       <c r="N56" s="34"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
-      <c r="B57" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="53">
-        <v>0</v>
-      </c>
-      <c r="E57" s="77">
-        <v>6</v>
-      </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="45">
+        <v>0</v>
+      </c>
+      <c r="E57" s="68">
+        <v>3</v>
+      </c>
+      <c r="F57" s="34">
+        <v>0</v>
+      </c>
+      <c r="G57" s="34">
+        <v>0</v>
+      </c>
+      <c r="H57" s="34">
+        <v>0</v>
+      </c>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
@@ -7493,22 +7999,28 @@
       <c r="N57" s="34"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
-      <c r="B58" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="53">
-        <v>0</v>
-      </c>
-      <c r="E58" s="77">
-        <v>25</v>
-      </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="45">
+        <v>0</v>
+      </c>
+      <c r="E58" s="68">
+        <v>6</v>
+      </c>
+      <c r="F58" s="34">
+        <v>0</v>
+      </c>
+      <c r="G58" s="34">
+        <v>0</v>
+      </c>
+      <c r="H58" s="34">
+        <v>0</v>
+      </c>
       <c r="I58" s="34"/>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
@@ -7517,22 +8029,28 @@
       <c r="N58" s="34"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="77">
-        <v>0</v>
-      </c>
-      <c r="E59" s="77">
-        <v>120</v>
-      </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="45">
+        <v>0</v>
+      </c>
+      <c r="E59" s="68">
+        <v>25</v>
+      </c>
+      <c r="F59" s="34">
+        <v>0</v>
+      </c>
+      <c r="G59" s="34">
+        <v>0</v>
+      </c>
+      <c r="H59" s="34">
+        <v>0</v>
+      </c>
       <c r="I59" s="34"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
@@ -7541,14 +8059,28 @@
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="68">
+        <v>0</v>
+      </c>
+      <c r="E60" s="68">
+        <v>120</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0</v>
+      </c>
+      <c r="G60" s="34">
+        <v>0</v>
+      </c>
+      <c r="H60" s="34">
+        <v>0</v>
+      </c>
       <c r="I60" s="34"/>
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
@@ -7557,11 +8089,11 @@
       <c r="N60" s="34"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="33"/>
       <c r="C61" s="34"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="60"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
@@ -7573,11 +8105,11 @@
       <c r="N61" s="34"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="33"/>
       <c r="C62" s="34"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="60"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
@@ -7589,11 +8121,11 @@
       <c r="N62" s="34"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="33"/>
       <c r="C63" s="34"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="60"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
@@ -7605,11 +8137,11 @@
       <c r="N63" s="34"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="33"/>
       <c r="C64" s="34"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="60"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
@@ -7621,11 +8153,11 @@
       <c r="N64" s="34"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="33"/>
       <c r="C65" s="34"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
@@ -7637,11 +8169,11 @@
       <c r="N65" s="34"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="33"/>
       <c r="C66" s="34"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="60"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
@@ -7653,11 +8185,11 @@
       <c r="N66" s="34"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="56"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="33"/>
       <c r="C67" s="34"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="60"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
@@ -7669,11 +8201,11 @@
       <c r="N67" s="34"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="33"/>
       <c r="C68" s="34"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="60"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
@@ -7685,11 +8217,11 @@
       <c r="N68" s="34"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="56"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="33"/>
       <c r="C69" s="34"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="60"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
@@ -7701,11 +8233,11 @@
       <c r="N69" s="34"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="56"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="33"/>
       <c r="C70" s="34"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="60"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
@@ -7717,11 +8249,11 @@
       <c r="N70" s="34"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="33"/>
       <c r="C71" s="34"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="60"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
@@ -7733,11 +8265,11 @@
       <c r="N71" s="34"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="56"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="33"/>
       <c r="C72" s="34"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="60"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
@@ -7749,11 +8281,11 @@
       <c r="N72" s="34"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="56"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="33"/>
       <c r="C73" s="34"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="60"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
@@ -7765,11 +8297,11 @@
       <c r="N73" s="34"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="56"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="33"/>
       <c r="C74" s="34"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="60"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
@@ -7781,11 +8313,11 @@
       <c r="N74" s="34"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="56"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="33"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="60"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
@@ -7797,11 +8329,11 @@
       <c r="N75" s="34"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="56"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="60"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
@@ -7813,11 +8345,11 @@
       <c r="N76" s="34"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="56"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="33"/>
       <c r="C77" s="34"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="60"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
@@ -7829,11 +8361,11 @@
       <c r="N77" s="34"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="33"/>
       <c r="C78" s="34"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="60"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
@@ -7845,11 +8377,11 @@
       <c r="N78" s="34"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="56"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="33"/>
       <c r="C79" s="34"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="60"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
@@ -7861,11 +8393,11 @@
       <c r="N79" s="34"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="56"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="33"/>
       <c r="C80" s="34"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="60"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
@@ -7877,11 +8409,11 @@
       <c r="N80" s="34"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="56"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="33"/>
       <c r="C81" s="34"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="60"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
@@ -7893,11 +8425,11 @@
       <c r="N81" s="34"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="56"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="33"/>
       <c r="C82" s="34"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="60"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="51"/>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
@@ -7909,11 +8441,11 @@
       <c r="N82" s="34"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="56"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="33"/>
       <c r="C83" s="34"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="60"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
@@ -7925,11 +8457,11 @@
       <c r="N83" s="34"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="33"/>
       <c r="C84" s="34"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="60"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
@@ -7941,11 +8473,11 @@
       <c r="N84" s="34"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="56"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="33"/>
       <c r="C85" s="34"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="60"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
@@ -7957,11 +8489,11 @@
       <c r="N85" s="34"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="33"/>
       <c r="C86" s="34"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="60"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
@@ -7973,11 +8505,11 @@
       <c r="N86" s="34"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="56"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="33"/>
       <c r="C87" s="34"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="60"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="51"/>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
@@ -7989,11 +8521,11 @@
       <c r="N87" s="34"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="56"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="33"/>
       <c r="C88" s="34"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="60"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="51"/>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
@@ -8005,11 +8537,11 @@
       <c r="N88" s="34"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="33"/>
       <c r="C89" s="34"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="60"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
       <c r="H89" s="34"/>
@@ -8021,11 +8553,11 @@
       <c r="N89" s="34"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="56"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="33"/>
       <c r="C90" s="34"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="60"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
@@ -8037,11 +8569,11 @@
       <c r="N90" s="34"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="56"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="33"/>
       <c r="C91" s="34"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="60"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="51"/>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
@@ -8053,11 +8585,11 @@
       <c r="N91" s="34"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="56"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="60"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="51"/>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
@@ -8069,11 +8601,11 @@
       <c r="N92" s="34"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="56"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="33"/>
       <c r="C93" s="34"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="60"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="51"/>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
@@ -8085,11 +8617,11 @@
       <c r="N93" s="34"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="56"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="33"/>
       <c r="C94" s="34"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="60"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="51"/>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
@@ -8101,11 +8633,11 @@
       <c r="N94" s="34"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="56"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="33"/>
       <c r="C95" s="34"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="60"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="51"/>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
@@ -8117,11 +8649,11 @@
       <c r="N95" s="34"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="56"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="33"/>
       <c r="C96" s="34"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="60"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="51"/>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
@@ -8133,11 +8665,11 @@
       <c r="N96" s="34"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="58"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="60"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="51"/>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
       <c r="H97" s="34"/>
@@ -8148,9 +8680,26 @@
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
     </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="50"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/spec/support/validRoNoRoomsSpreadsheet.xlsx
+++ b/spec/support/validRoNoRoomsSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB6BC58-8A2E-DE4B-8853-75BA4C6BB0F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9D4A8-55E0-5043-B403-17B953CADF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="1340" windowWidth="23160" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10420" yWindow="1220" windowWidth="23160" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="129">
   <si>
     <t>Example</t>
   </si>
@@ -418,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -558,6 +558,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -639,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1152,11 +1158,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,40 +1279,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,6 +1308,39 @@
     <xf numFmtId="0" fontId="19" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2537,19 +2555,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -6197,10 +6215,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="33"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -6297,7 +6315,7 @@
   <dimension ref="A1:IV98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H60"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6311,16 +6329,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="41"/>
@@ -6329,16 +6347,16 @@
       <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
@@ -6347,26 +6365,26 @@
       <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I3" s="34"/>
@@ -6377,28 +6395,28 @@
       <c r="N3" s="34"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="81">
         <v>10</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="82">
         <v>50</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="82">
         <v>8</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="82">
         <v>60</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="83" t="s">
         <v>128</v>
       </c>
       <c r="I4" s="34"/>
@@ -6422,14 +6440,14 @@
       <c r="E5" s="67">
         <v>24</v>
       </c>
-      <c r="F5" s="34">
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0</v>
+      <c r="F5" s="68">
+        <v>12</v>
+      </c>
+      <c r="G5" s="94">
+        <v>60</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>128</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -6452,14 +6470,14 @@
       <c r="E6" s="68">
         <v>7</v>
       </c>
-      <c r="F6" s="34">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34">
-        <v>0</v>
-      </c>
-      <c r="H6" s="34">
-        <v>0</v>
+      <c r="F6" s="68">
+        <v>12</v>
+      </c>
+      <c r="G6" s="96">
+        <v>60</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -6482,14 +6500,14 @@
       <c r="E7" s="68">
         <v>4</v>
       </c>
-      <c r="F7" s="34">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
-        <v>0</v>
+      <c r="F7" s="68">
+        <v>12</v>
+      </c>
+      <c r="G7" s="96">
+        <v>60</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
@@ -6512,14 +6530,14 @@
       <c r="E8" s="68">
         <v>15</v>
       </c>
-      <c r="F8" s="34">
-        <v>0</v>
-      </c>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0</v>
+      <c r="F8" s="68">
+        <v>12</v>
+      </c>
+      <c r="G8" s="96">
+        <v>60</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -6542,14 +6560,14 @@
       <c r="E9" s="68">
         <v>8</v>
       </c>
-      <c r="F9" s="34">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <v>0</v>
+      <c r="F9" s="68">
+        <v>12</v>
+      </c>
+      <c r="G9" s="96">
+        <v>60</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -6572,14 +6590,14 @@
       <c r="E10" s="68">
         <v>4</v>
       </c>
-      <c r="F10" s="34">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0</v>
+      <c r="F10" s="68">
+        <v>12</v>
+      </c>
+      <c r="G10" s="96">
+        <v>60</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
@@ -6602,14 +6620,14 @@
       <c r="E11" s="68">
         <v>30</v>
       </c>
-      <c r="F11" s="34">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <v>0</v>
+      <c r="F11" s="68">
+        <v>12</v>
+      </c>
+      <c r="G11" s="96">
+        <v>60</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -6632,14 +6650,14 @@
       <c r="E12" s="68">
         <v>41</v>
       </c>
-      <c r="F12" s="34">
-        <v>0</v>
-      </c>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
+      <c r="F12" s="68">
+        <v>12</v>
+      </c>
+      <c r="G12" s="96">
+        <v>60</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
@@ -6662,14 +6680,14 @@
       <c r="E13" s="68">
         <v>25</v>
       </c>
-      <c r="F13" s="34">
-        <v>0</v>
-      </c>
-      <c r="G13" s="34">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <v>0</v>
+      <c r="F13" s="68">
+        <v>12</v>
+      </c>
+      <c r="G13" s="96">
+        <v>60</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
@@ -6692,14 +6710,14 @@
       <c r="E14" s="68">
         <v>23</v>
       </c>
-      <c r="F14" s="34">
-        <v>0</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0</v>
+      <c r="F14" s="68">
+        <v>12</v>
+      </c>
+      <c r="G14" s="96">
+        <v>60</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -6722,14 +6740,14 @@
       <c r="E15" s="68">
         <v>60</v>
       </c>
-      <c r="F15" s="34">
-        <v>0</v>
-      </c>
-      <c r="G15" s="34">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <v>0</v>
+      <c r="F15" s="68">
+        <v>12</v>
+      </c>
+      <c r="G15" s="96">
+        <v>60</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
@@ -6752,14 +6770,14 @@
       <c r="E16" s="68">
         <v>60</v>
       </c>
-      <c r="F16" s="34">
-        <v>0</v>
-      </c>
-      <c r="G16" s="34">
-        <v>0</v>
-      </c>
-      <c r="H16" s="34">
-        <v>0</v>
+      <c r="F16" s="68">
+        <v>12</v>
+      </c>
+      <c r="G16" s="96">
+        <v>60</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
@@ -6782,14 +6800,14 @@
       <c r="E17" s="68">
         <v>118</v>
       </c>
-      <c r="F17" s="34">
-        <v>0</v>
-      </c>
-      <c r="G17" s="34">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34">
-        <v>0</v>
+      <c r="F17" s="68">
+        <v>12</v>
+      </c>
+      <c r="G17" s="96">
+        <v>60</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
@@ -6812,14 +6830,14 @@
       <c r="E18" s="68">
         <v>170</v>
       </c>
-      <c r="F18" s="34">
-        <v>0</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0</v>
+      <c r="F18" s="68">
+        <v>12</v>
+      </c>
+      <c r="G18" s="96">
+        <v>60</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
@@ -6842,14 +6860,14 @@
       <c r="E19" s="68">
         <v>117</v>
       </c>
-      <c r="F19" s="34">
-        <v>0</v>
-      </c>
-      <c r="G19" s="34">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34">
-        <v>0</v>
+      <c r="F19" s="68">
+        <v>12</v>
+      </c>
+      <c r="G19" s="96">
+        <v>60</v>
+      </c>
+      <c r="H19" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
@@ -6872,14 +6890,14 @@
       <c r="E20" s="68">
         <v>60</v>
       </c>
-      <c r="F20" s="34">
-        <v>0</v>
-      </c>
-      <c r="G20" s="34">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34">
-        <v>0</v>
+      <c r="F20" s="68">
+        <v>12</v>
+      </c>
+      <c r="G20" s="96">
+        <v>60</v>
+      </c>
+      <c r="H20" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
@@ -6902,14 +6920,14 @@
       <c r="E21" s="68">
         <v>60</v>
       </c>
-      <c r="F21" s="34">
-        <v>0</v>
-      </c>
-      <c r="G21" s="34">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34">
-        <v>0</v>
+      <c r="F21" s="68">
+        <v>12</v>
+      </c>
+      <c r="G21" s="96">
+        <v>60</v>
+      </c>
+      <c r="H21" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
@@ -6932,14 +6950,14 @@
       <c r="E22" s="68">
         <v>50</v>
       </c>
-      <c r="F22" s="34">
-        <v>0</v>
-      </c>
-      <c r="G22" s="34">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0</v>
+      <c r="F22" s="68">
+        <v>12</v>
+      </c>
+      <c r="G22" s="96">
+        <v>60</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
@@ -6962,14 +6980,14 @@
       <c r="E23" s="68">
         <v>57</v>
       </c>
-      <c r="F23" s="34">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34">
-        <v>0</v>
+      <c r="F23" s="68">
+        <v>12</v>
+      </c>
+      <c r="G23" s="96">
+        <v>60</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
@@ -6992,14 +7010,14 @@
       <c r="E24" s="68">
         <v>26</v>
       </c>
-      <c r="F24" s="34">
-        <v>0</v>
-      </c>
-      <c r="G24" s="34">
-        <v>0</v>
-      </c>
-      <c r="H24" s="34">
-        <v>0</v>
+      <c r="F24" s="68">
+        <v>12</v>
+      </c>
+      <c r="G24" s="96">
+        <v>60</v>
+      </c>
+      <c r="H24" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
@@ -7022,14 +7040,14 @@
       <c r="E25" s="68">
         <v>83</v>
       </c>
-      <c r="F25" s="34">
-        <v>0</v>
-      </c>
-      <c r="G25" s="34">
-        <v>0</v>
-      </c>
-      <c r="H25" s="34">
-        <v>0</v>
+      <c r="F25" s="68">
+        <v>12</v>
+      </c>
+      <c r="G25" s="96">
+        <v>60</v>
+      </c>
+      <c r="H25" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
@@ -7052,14 +7070,14 @@
       <c r="E26" s="68">
         <v>37</v>
       </c>
-      <c r="F26" s="34">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0</v>
+      <c r="F26" s="68">
+        <v>12</v>
+      </c>
+      <c r="G26" s="96">
+        <v>60</v>
+      </c>
+      <c r="H26" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -7082,14 +7100,14 @@
       <c r="E27" s="68">
         <v>25</v>
       </c>
-      <c r="F27" s="34">
-        <v>0</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0</v>
-      </c>
-      <c r="H27" s="34">
-        <v>0</v>
+      <c r="F27" s="68">
+        <v>12</v>
+      </c>
+      <c r="G27" s="96">
+        <v>60</v>
+      </c>
+      <c r="H27" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
@@ -7112,14 +7130,14 @@
       <c r="E28" s="68">
         <v>60</v>
       </c>
-      <c r="F28" s="34">
-        <v>0</v>
-      </c>
-      <c r="G28" s="34">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34">
-        <v>0</v>
+      <c r="F28" s="68">
+        <v>12</v>
+      </c>
+      <c r="G28" s="96">
+        <v>60</v>
+      </c>
+      <c r="H28" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
@@ -7142,14 +7160,14 @@
       <c r="E29" s="68">
         <v>39</v>
       </c>
-      <c r="F29" s="34">
-        <v>0</v>
-      </c>
-      <c r="G29" s="34">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34">
-        <v>0</v>
+      <c r="F29" s="68">
+        <v>12</v>
+      </c>
+      <c r="G29" s="96">
+        <v>60</v>
+      </c>
+      <c r="H29" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
@@ -7172,14 +7190,14 @@
       <c r="E30" s="68">
         <v>30</v>
       </c>
-      <c r="F30" s="34">
-        <v>0</v>
-      </c>
-      <c r="G30" s="34">
-        <v>0</v>
-      </c>
-      <c r="H30" s="34">
-        <v>0</v>
+      <c r="F30" s="68">
+        <v>12</v>
+      </c>
+      <c r="G30" s="96">
+        <v>60</v>
+      </c>
+      <c r="H30" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
@@ -7202,14 +7220,14 @@
       <c r="E31" s="68">
         <v>25</v>
       </c>
-      <c r="F31" s="34">
-        <v>0</v>
-      </c>
-      <c r="G31" s="34">
-        <v>0</v>
-      </c>
-      <c r="H31" s="34">
-        <v>0</v>
+      <c r="F31" s="68">
+        <v>12</v>
+      </c>
+      <c r="G31" s="96">
+        <v>60</v>
+      </c>
+      <c r="H31" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
@@ -7232,14 +7250,14 @@
       <c r="E32" s="68">
         <v>10</v>
       </c>
-      <c r="F32" s="34">
-        <v>0</v>
-      </c>
-      <c r="G32" s="34">
-        <v>0</v>
-      </c>
-      <c r="H32" s="34">
-        <v>0</v>
+      <c r="F32" s="68">
+        <v>12</v>
+      </c>
+      <c r="G32" s="96">
+        <v>60</v>
+      </c>
+      <c r="H32" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
@@ -7262,14 +7280,14 @@
       <c r="E33" s="68">
         <v>5</v>
       </c>
-      <c r="F33" s="34">
-        <v>0</v>
-      </c>
-      <c r="G33" s="34">
-        <v>0</v>
-      </c>
-      <c r="H33" s="34">
-        <v>0</v>
+      <c r="F33" s="68">
+        <v>12</v>
+      </c>
+      <c r="G33" s="96">
+        <v>60</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
@@ -7292,14 +7310,14 @@
       <c r="E34" s="68">
         <v>19</v>
       </c>
-      <c r="F34" s="34">
-        <v>0</v>
-      </c>
-      <c r="G34" s="34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="34">
-        <v>0</v>
+      <c r="F34" s="68">
+        <v>12</v>
+      </c>
+      <c r="G34" s="96">
+        <v>60</v>
+      </c>
+      <c r="H34" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
@@ -7322,14 +7340,14 @@
       <c r="E35" s="68">
         <v>2</v>
       </c>
-      <c r="F35" s="34">
-        <v>0</v>
-      </c>
-      <c r="G35" s="34">
-        <v>0</v>
-      </c>
-      <c r="H35" s="34">
-        <v>0</v>
+      <c r="F35" s="68">
+        <v>12</v>
+      </c>
+      <c r="G35" s="96">
+        <v>60</v>
+      </c>
+      <c r="H35" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
@@ -7352,14 +7370,14 @@
       <c r="E36" s="68">
         <v>0</v>
       </c>
-      <c r="F36" s="34">
-        <v>0</v>
-      </c>
-      <c r="G36" s="34">
-        <v>0</v>
-      </c>
-      <c r="H36" s="34">
-        <v>0</v>
+      <c r="F36" s="68">
+        <v>12</v>
+      </c>
+      <c r="G36" s="96">
+        <v>60</v>
+      </c>
+      <c r="H36" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
@@ -7382,14 +7400,14 @@
       <c r="E37" s="68">
         <v>3</v>
       </c>
-      <c r="F37" s="34">
-        <v>0</v>
-      </c>
-      <c r="G37" s="34">
-        <v>0</v>
-      </c>
-      <c r="H37" s="34">
-        <v>0</v>
+      <c r="F37" s="68">
+        <v>12</v>
+      </c>
+      <c r="G37" s="96">
+        <v>60</v>
+      </c>
+      <c r="H37" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
@@ -7412,14 +7430,14 @@
       <c r="E38" s="68">
         <v>51</v>
       </c>
-      <c r="F38" s="34">
-        <v>0</v>
-      </c>
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
-      <c r="H38" s="34">
-        <v>0</v>
+      <c r="F38" s="68">
+        <v>12</v>
+      </c>
+      <c r="G38" s="96">
+        <v>60</v>
+      </c>
+      <c r="H38" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -7442,14 +7460,14 @@
       <c r="E39" s="68">
         <v>12</v>
       </c>
-      <c r="F39" s="34">
-        <v>0</v>
-      </c>
-      <c r="G39" s="34">
-        <v>0</v>
-      </c>
-      <c r="H39" s="34">
-        <v>0</v>
+      <c r="F39" s="68">
+        <v>12</v>
+      </c>
+      <c r="G39" s="96">
+        <v>60</v>
+      </c>
+      <c r="H39" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
@@ -7472,14 +7490,14 @@
       <c r="E40" s="68">
         <v>5</v>
       </c>
-      <c r="F40" s="34">
-        <v>0</v>
-      </c>
-      <c r="G40" s="34">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34">
-        <v>0</v>
+      <c r="F40" s="68">
+        <v>12</v>
+      </c>
+      <c r="G40" s="96">
+        <v>60</v>
+      </c>
+      <c r="H40" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="34"/>
@@ -7502,14 +7520,14 @@
       <c r="E41" s="68">
         <v>2</v>
       </c>
-      <c r="F41" s="34">
-        <v>0</v>
-      </c>
-      <c r="G41" s="34">
-        <v>0</v>
-      </c>
-      <c r="H41" s="34">
-        <v>0</v>
+      <c r="F41" s="68">
+        <v>12</v>
+      </c>
+      <c r="G41" s="96">
+        <v>60</v>
+      </c>
+      <c r="H41" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
@@ -7532,14 +7550,14 @@
       <c r="E42" s="68">
         <v>55</v>
       </c>
-      <c r="F42" s="34">
-        <v>0</v>
-      </c>
-      <c r="G42" s="34">
-        <v>0</v>
-      </c>
-      <c r="H42" s="34">
-        <v>0</v>
+      <c r="F42" s="68">
+        <v>12</v>
+      </c>
+      <c r="G42" s="96">
+        <v>60</v>
+      </c>
+      <c r="H42" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I42" s="34"/>
       <c r="J42" s="34"/>
@@ -7562,14 +7580,14 @@
       <c r="E43" s="68">
         <v>53</v>
       </c>
-      <c r="F43" s="34">
-        <v>0</v>
-      </c>
-      <c r="G43" s="34">
-        <v>0</v>
-      </c>
-      <c r="H43" s="34">
-        <v>0</v>
+      <c r="F43" s="68">
+        <v>12</v>
+      </c>
+      <c r="G43" s="96">
+        <v>60</v>
+      </c>
+      <c r="H43" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
@@ -7592,14 +7610,14 @@
       <c r="E44" s="68">
         <v>35</v>
       </c>
-      <c r="F44" s="34">
-        <v>0</v>
-      </c>
-      <c r="G44" s="34">
-        <v>0</v>
-      </c>
-      <c r="H44" s="34">
-        <v>0</v>
+      <c r="F44" s="68">
+        <v>12</v>
+      </c>
+      <c r="G44" s="96">
+        <v>60</v>
+      </c>
+      <c r="H44" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="34"/>
@@ -7622,14 +7640,14 @@
       <c r="E45" s="68">
         <v>28</v>
       </c>
-      <c r="F45" s="34">
-        <v>0</v>
-      </c>
-      <c r="G45" s="34">
-        <v>0</v>
-      </c>
-      <c r="H45" s="34">
-        <v>0</v>
+      <c r="F45" s="68">
+        <v>12</v>
+      </c>
+      <c r="G45" s="96">
+        <v>60</v>
+      </c>
+      <c r="H45" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I45" s="34"/>
       <c r="J45" s="34"/>
@@ -7652,14 +7670,14 @@
       <c r="E46" s="68">
         <v>3</v>
       </c>
-      <c r="F46" s="34">
-        <v>0</v>
-      </c>
-      <c r="G46" s="34">
-        <v>0</v>
-      </c>
-      <c r="H46" s="34">
-        <v>0</v>
+      <c r="F46" s="68">
+        <v>12</v>
+      </c>
+      <c r="G46" s="96">
+        <v>60</v>
+      </c>
+      <c r="H46" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I46" s="34"/>
       <c r="J46" s="34"/>
@@ -7682,14 +7700,14 @@
       <c r="E47" s="68">
         <v>33</v>
       </c>
-      <c r="F47" s="34">
-        <v>0</v>
-      </c>
-      <c r="G47" s="34">
-        <v>0</v>
-      </c>
-      <c r="H47" s="34">
-        <v>0</v>
+      <c r="F47" s="68">
+        <v>12</v>
+      </c>
+      <c r="G47" s="96">
+        <v>60</v>
+      </c>
+      <c r="H47" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I47" s="34"/>
       <c r="J47" s="34"/>
@@ -7712,14 +7730,14 @@
       <c r="E48" s="68">
         <v>90</v>
       </c>
-      <c r="F48" s="34">
-        <v>0</v>
-      </c>
-      <c r="G48" s="34">
-        <v>0</v>
-      </c>
-      <c r="H48" s="34">
-        <v>0</v>
+      <c r="F48" s="68">
+        <v>12</v>
+      </c>
+      <c r="G48" s="96">
+        <v>60</v>
+      </c>
+      <c r="H48" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
@@ -7742,14 +7760,14 @@
       <c r="E49" s="68">
         <v>32</v>
       </c>
-      <c r="F49" s="34">
-        <v>0</v>
-      </c>
-      <c r="G49" s="34">
-        <v>0</v>
-      </c>
-      <c r="H49" s="34">
-        <v>0</v>
+      <c r="F49" s="68">
+        <v>12</v>
+      </c>
+      <c r="G49" s="96">
+        <v>60</v>
+      </c>
+      <c r="H49" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="34"/>
@@ -7772,14 +7790,14 @@
       <c r="E50" s="68">
         <v>35</v>
       </c>
-      <c r="F50" s="34">
-        <v>0</v>
-      </c>
-      <c r="G50" s="34">
-        <v>0</v>
-      </c>
-      <c r="H50" s="34">
-        <v>0</v>
+      <c r="F50" s="68">
+        <v>12</v>
+      </c>
+      <c r="G50" s="96">
+        <v>60</v>
+      </c>
+      <c r="H50" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
@@ -7802,14 +7820,14 @@
       <c r="E51" s="68">
         <v>8</v>
       </c>
-      <c r="F51" s="34">
-        <v>0</v>
-      </c>
-      <c r="G51" s="34">
-        <v>0</v>
-      </c>
-      <c r="H51" s="34">
-        <v>0</v>
+      <c r="F51" s="68">
+        <v>12</v>
+      </c>
+      <c r="G51" s="96">
+        <v>60</v>
+      </c>
+      <c r="H51" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
@@ -7832,14 +7850,14 @@
       <c r="E52" s="68">
         <v>16</v>
       </c>
-      <c r="F52" s="34">
-        <v>0</v>
-      </c>
-      <c r="G52" s="34">
-        <v>0</v>
-      </c>
-      <c r="H52" s="34">
-        <v>0</v>
+      <c r="F52" s="68">
+        <v>12</v>
+      </c>
+      <c r="G52" s="96">
+        <v>60</v>
+      </c>
+      <c r="H52" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
@@ -7862,14 +7880,14 @@
       <c r="E53" s="68">
         <v>15</v>
       </c>
-      <c r="F53" s="34">
-        <v>0</v>
-      </c>
-      <c r="G53" s="34">
-        <v>0</v>
-      </c>
-      <c r="H53" s="34">
-        <v>0</v>
+      <c r="F53" s="68">
+        <v>12</v>
+      </c>
+      <c r="G53" s="96">
+        <v>60</v>
+      </c>
+      <c r="H53" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I53" s="34"/>
       <c r="J53" s="34"/>
@@ -7892,14 +7910,14 @@
       <c r="E54" s="68">
         <v>1</v>
       </c>
-      <c r="F54" s="34">
-        <v>0</v>
-      </c>
-      <c r="G54" s="34">
-        <v>0</v>
-      </c>
-      <c r="H54" s="34">
-        <v>0</v>
+      <c r="F54" s="68">
+        <v>12</v>
+      </c>
+      <c r="G54" s="96">
+        <v>60</v>
+      </c>
+      <c r="H54" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
@@ -7922,14 +7940,14 @@
       <c r="E55" s="68">
         <v>10</v>
       </c>
-      <c r="F55" s="34">
-        <v>0</v>
-      </c>
-      <c r="G55" s="34">
-        <v>0</v>
-      </c>
-      <c r="H55" s="34">
-        <v>0</v>
+      <c r="F55" s="68">
+        <v>12</v>
+      </c>
+      <c r="G55" s="96">
+        <v>60</v>
+      </c>
+      <c r="H55" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
@@ -7952,14 +7970,14 @@
       <c r="E56" s="68">
         <v>166</v>
       </c>
-      <c r="F56" s="34">
-        <v>0</v>
-      </c>
-      <c r="G56" s="34">
-        <v>0</v>
-      </c>
-      <c r="H56" s="34">
-        <v>0</v>
+      <c r="F56" s="68">
+        <v>12</v>
+      </c>
+      <c r="G56" s="96">
+        <v>60</v>
+      </c>
+      <c r="H56" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
@@ -7982,14 +8000,14 @@
       <c r="E57" s="68">
         <v>3</v>
       </c>
-      <c r="F57" s="34">
-        <v>0</v>
-      </c>
-      <c r="G57" s="34">
-        <v>0</v>
-      </c>
-      <c r="H57" s="34">
-        <v>0</v>
+      <c r="F57" s="68">
+        <v>12</v>
+      </c>
+      <c r="G57" s="96">
+        <v>60</v>
+      </c>
+      <c r="H57" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
@@ -8012,14 +8030,14 @@
       <c r="E58" s="68">
         <v>6</v>
       </c>
-      <c r="F58" s="34">
-        <v>0</v>
-      </c>
-      <c r="G58" s="34">
-        <v>0</v>
-      </c>
-      <c r="H58" s="34">
-        <v>0</v>
+      <c r="F58" s="68">
+        <v>12</v>
+      </c>
+      <c r="G58" s="96">
+        <v>60</v>
+      </c>
+      <c r="H58" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I58" s="34"/>
       <c r="J58" s="34"/>
@@ -8042,14 +8060,14 @@
       <c r="E59" s="68">
         <v>25</v>
       </c>
-      <c r="F59" s="34">
-        <v>0</v>
-      </c>
-      <c r="G59" s="34">
-        <v>0</v>
-      </c>
-      <c r="H59" s="34">
-        <v>0</v>
+      <c r="F59" s="68">
+        <v>12</v>
+      </c>
+      <c r="G59" s="96">
+        <v>60</v>
+      </c>
+      <c r="H59" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I59" s="34"/>
       <c r="J59" s="34"/>
@@ -8072,14 +8090,14 @@
       <c r="E60" s="68">
         <v>120</v>
       </c>
-      <c r="F60" s="34">
-        <v>0</v>
-      </c>
-      <c r="G60" s="34">
-        <v>0</v>
-      </c>
-      <c r="H60" s="34">
-        <v>0</v>
+      <c r="F60" s="68">
+        <v>12</v>
+      </c>
+      <c r="G60" s="96">
+        <v>60</v>
+      </c>
+      <c r="H60" s="96" t="s">
+        <v>128</v>
       </c>
       <c r="I60" s="34"/>
       <c r="J60" s="34"/>

--- a/spec/support/validRoNoRoomsSpreadsheet.xlsx
+++ b/spec/support/validRoNoRoomsSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/workspace/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907A4F55-85AF-5849-839B-46DDB383A4EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F9D4A8-55E0-5043-B403-17B953CADF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="1340" windowWidth="23160" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10420" yWindow="1220" windowWidth="23160" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="129">
   <si>
     <t>Example</t>
   </si>
@@ -384,16 +384,31 @@
     <t xml:space="preserve">Des Moines, IA </t>
   </si>
   <si>
-    <t>Number of Hearing Days Without Rooms in Date Range</t>
-  </si>
-  <si>
-    <t>Number of Hearing Days with 425 I Rooms Allocated in Date Range</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>NVHQ</t>
+  </si>
+  <si>
+    <t>Virtual Days</t>
+  </si>
+  <si>
+    <t># of Video Days</t>
+  </si>
+  <si>
+    <t># of Virtual Days</t>
+  </si>
+  <si>
+    <t>Number of Time Slots</t>
+  </si>
+  <si>
+    <t>Length of Time Slots (Minutes)</t>
+  </si>
+  <si>
+    <t>Start Time (Eastern)</t>
+  </si>
+  <si>
+    <t>8:30</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -506,8 +521,51 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +614,38 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -833,56 +921,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -935,34 +973,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -989,11 +999,179 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1066,58 +1244,70 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,17 +1320,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IT50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AZ1" workbookViewId="0">
       <selection activeCell="BF2" sqref="BF2:BF4"/>
     </sheetView>
   </sheetViews>
@@ -2355,19 +2555,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -2586,8 +2786,8 @@
       <c r="BE2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="86" t="s">
-        <v>123</v>
+      <c r="BF2" s="70" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -2762,8 +2962,8 @@
       <c r="BE3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="85" t="s">
-        <v>122</v>
+      <c r="BF3" s="69" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -2773,173 +2973,173 @@
       <c r="B4" s="15">
         <v>43466</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="63">
+      <c r="C4" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="54">
         <v>44316</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="66">
+      <c r="E4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="57">
         <v>44314</v>
       </c>
-      <c r="I4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="O4" s="63">
+      <c r="I4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="54">
         <v>44347</v>
       </c>
-      <c r="P4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q4" s="63">
+      <c r="P4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="54">
         <v>44292</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="54">
         <v>44288</v>
       </c>
-      <c r="S4" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="U4" s="63">
+      <c r="S4" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" s="54">
         <v>44312</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="58">
         <v>44358</v>
       </c>
-      <c r="W4" s="63">
+      <c r="W4" s="54">
         <v>44361</v>
       </c>
-      <c r="X4" s="63">
+      <c r="X4" s="54">
         <v>44329</v>
       </c>
-      <c r="Y4" s="63">
+      <c r="Y4" s="54">
         <v>44312</v>
       </c>
-      <c r="Z4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA4" s="63">
+      <c r="Z4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="54">
         <v>44293</v>
       </c>
-      <c r="AB4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE4" s="67">
+      <c r="AB4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" s="58">
         <v>44344</v>
       </c>
-      <c r="AF4" s="63">
+      <c r="AF4" s="54">
         <v>44315</v>
       </c>
-      <c r="AG4" s="69">
+      <c r="AG4" s="60">
         <v>44287</v>
       </c>
-      <c r="AH4" s="63">
+      <c r="AH4" s="54">
         <v>44314</v>
       </c>
-      <c r="AI4" s="63">
+      <c r="AI4" s="54">
         <v>44293</v>
       </c>
-      <c r="AJ4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL4" s="63">
+      <c r="AJ4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL4" s="54">
         <v>44327</v>
       </c>
-      <c r="AM4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP4" s="63">
+      <c r="AM4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP4" s="54">
         <v>44287</v>
       </c>
-      <c r="AQ4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR4" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS4" s="63">
+      <c r="AQ4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR4" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS4" s="54">
         <v>44315</v>
       </c>
-      <c r="AT4" s="63">
+      <c r="AT4" s="54">
         <v>44340</v>
       </c>
-      <c r="AU4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV4" s="63">
+      <c r="AU4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV4" s="54">
         <v>44291</v>
       </c>
-      <c r="AW4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX4" s="63">
+      <c r="AW4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX4" s="54">
         <v>44343</v>
       </c>
-      <c r="AY4" s="63">
+      <c r="AY4" s="54">
         <v>44288</v>
       </c>
-      <c r="AZ4" s="63">
+      <c r="AZ4" s="54">
         <v>44294</v>
       </c>
-      <c r="BA4" s="63">
+      <c r="BA4" s="54">
         <v>44288</v>
       </c>
-      <c r="BB4" s="63">
+      <c r="BB4" s="54">
         <v>44288</v>
       </c>
-      <c r="BC4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE4" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF4" s="68" t="s">
-        <v>122</v>
+      <c r="BC4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF4" s="59" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,1304 +3147,1304 @@
       <c r="B5" s="17">
         <v>43497</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54">
         <v>44317</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66">
+      <c r="E5" s="61"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57">
         <v>44315</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="63">
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="54">
         <v>44348</v>
       </c>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="63">
+      <c r="P5" s="61"/>
+      <c r="Q5" s="54">
         <v>44320</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="54">
         <v>44291</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="63">
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="54">
         <v>44347</v>
       </c>
-      <c r="V5" s="67">
+      <c r="V5" s="58">
         <v>44361</v>
       </c>
-      <c r="W5" s="63">
+      <c r="W5" s="54">
         <v>44362</v>
       </c>
-      <c r="X5" s="63">
+      <c r="X5" s="54">
         <v>44330</v>
       </c>
-      <c r="Y5" s="63">
+      <c r="Y5" s="54">
         <v>44313</v>
       </c>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="63">
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="54">
         <v>44300</v>
       </c>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="67">
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="58">
         <v>44348</v>
       </c>
-      <c r="AF5" s="63">
+      <c r="AF5" s="54">
         <v>44316</v>
       </c>
-      <c r="AG5" s="69">
+      <c r="AG5" s="60">
         <v>44288</v>
       </c>
-      <c r="AH5" s="63">
+      <c r="AH5" s="54">
         <v>44315</v>
       </c>
-      <c r="AI5" s="63">
+      <c r="AI5" s="54">
         <v>44294</v>
       </c>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="63">
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="54">
         <v>44347</v>
       </c>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="63">
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="54">
         <v>44288</v>
       </c>
-      <c r="AQ5" s="70"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="63">
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54">
         <v>44316</v>
       </c>
-      <c r="AT5" s="63">
+      <c r="AT5" s="54">
         <v>44341</v>
       </c>
-      <c r="AU5" s="70"/>
-      <c r="AV5" s="63">
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="54">
         <v>44292</v>
       </c>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="63">
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="54">
         <v>44344</v>
       </c>
-      <c r="AY5" s="63">
+      <c r="AY5" s="54">
         <v>44347</v>
       </c>
-      <c r="AZ5" s="63">
+      <c r="AZ5" s="54">
         <v>44295</v>
       </c>
-      <c r="BA5" s="63">
+      <c r="BA5" s="54">
         <v>44358</v>
       </c>
-      <c r="BB5" s="63"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="71"/>
-      <c r="BF5" s="71"/>
+      <c r="BB5" s="54"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
     </row>
     <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="19">
         <v>43540</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66">
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57">
         <v>44316</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="63">
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="54">
         <v>44349</v>
       </c>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="63">
+      <c r="P6" s="63"/>
+      <c r="Q6" s="54">
         <v>44348</v>
       </c>
-      <c r="R6" s="63">
+      <c r="R6" s="54">
         <v>44295</v>
       </c>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="63">
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="54">
         <v>44348</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="58">
         <v>44362</v>
       </c>
-      <c r="W6" s="63">
+      <c r="W6" s="54">
         <v>44363</v>
       </c>
-      <c r="X6" s="63">
+      <c r="X6" s="54">
         <v>44336</v>
       </c>
-      <c r="Y6" s="63">
+      <c r="Y6" s="54">
         <v>44314</v>
       </c>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="63">
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="54">
         <v>44307</v>
       </c>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="69">
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="60">
         <v>44291</v>
       </c>
-      <c r="AH6" s="63">
+      <c r="AH6" s="54">
         <v>44319</v>
       </c>
-      <c r="AI6" s="63">
+      <c r="AI6" s="54">
         <v>44295</v>
       </c>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="63">
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="54">
         <v>44348</v>
       </c>
-      <c r="AM6" s="72"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="63">
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="54">
         <v>44312</v>
       </c>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="72"/>
-      <c r="AT6" s="63">
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="54">
         <v>44342</v>
       </c>
-      <c r="AU6" s="72"/>
-      <c r="AV6" s="63">
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="54">
         <v>44293</v>
       </c>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="63">
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="54">
         <v>44375</v>
       </c>
-      <c r="AY6" s="72"/>
-      <c r="AZ6" s="63">
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="54">
         <v>44319</v>
       </c>
-      <c r="BA6" s="72"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="72"/>
-      <c r="BD6" s="72"/>
-      <c r="BE6" s="72"/>
-      <c r="BF6" s="72"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="63"/>
+      <c r="BF6" s="63"/>
     </row>
     <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="20">
         <v>43576</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57">
         <v>44319</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="63">
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="54">
         <v>44350</v>
       </c>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="63">
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="54">
         <v>44302</v>
       </c>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="63">
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="54">
         <v>44349</v>
       </c>
-      <c r="V7" s="67">
+      <c r="V7" s="58">
         <v>44363</v>
       </c>
-      <c r="W7" s="63">
+      <c r="W7" s="54">
         <v>44364</v>
       </c>
-      <c r="X7" s="63">
+      <c r="X7" s="54">
         <v>44337</v>
       </c>
-      <c r="Y7" s="63">
+      <c r="Y7" s="54">
         <v>44315</v>
       </c>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="63">
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="54">
         <v>44314</v>
       </c>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="69">
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="60">
         <v>44309</v>
       </c>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="63">
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="54">
         <v>44313</v>
       </c>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="63">
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="54">
         <v>44343</v>
       </c>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="63">
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="54">
         <v>44294</v>
       </c>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="63">
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="54">
         <v>44376</v>
       </c>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="63">
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="54">
         <v>44341</v>
       </c>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="71"/>
-      <c r="BF7" s="71"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="62"/>
+      <c r="BF7" s="62"/>
     </row>
     <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="22">
         <v>43604</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65">
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56">
         <v>44320</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="63">
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="54">
         <v>44351</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="63">
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="54">
         <v>44309</v>
       </c>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="63">
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="54">
         <v>44350</v>
       </c>
-      <c r="V8" s="67">
+      <c r="V8" s="58">
         <v>44364</v>
       </c>
-      <c r="W8" s="63">
+      <c r="W8" s="54">
         <v>44365</v>
       </c>
-      <c r="X8" s="63">
+      <c r="X8" s="54">
         <v>44343</v>
       </c>
-      <c r="Y8" s="63">
+      <c r="Y8" s="54">
         <v>44316</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="63">
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="54">
         <v>44321</v>
       </c>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="69">
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="60">
         <v>44323</v>
       </c>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="63">
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="54">
         <v>44314</v>
       </c>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="63">
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="54">
         <v>44344</v>
       </c>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="63">
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="54">
         <v>44295</v>
       </c>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="63">
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="54">
         <v>44377</v>
       </c>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="63">
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="54">
         <v>44358</v>
       </c>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
     </row>
     <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65">
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56">
         <v>44321</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="63">
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="54">
         <v>44316</v>
       </c>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="63">
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="54">
         <v>44351</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="58">
         <v>44365</v>
       </c>
-      <c r="W9" s="73">
+      <c r="W9" s="64">
         <v>44369</v>
       </c>
-      <c r="X9" s="63">
+      <c r="X9" s="54">
         <v>44344</v>
       </c>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="63">
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="54">
         <v>44328</v>
       </c>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="69">
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="60">
         <v>44351</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="70"/>
-      <c r="AO9" s="70"/>
-      <c r="AP9" s="63">
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="54">
         <v>44315</v>
       </c>
-      <c r="AQ9" s="70"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="70"/>
-      <c r="AT9" s="63">
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="54">
         <v>44375</v>
       </c>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="63">
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="54">
         <v>44319</v>
       </c>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
-      <c r="BC9" s="70"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="71"/>
-      <c r="BF9" s="71"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
     </row>
     <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="24"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56">
         <v>44322</v>
       </c>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="63">
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="54">
         <v>44323</v>
       </c>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="63">
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="54">
         <v>44352</v>
       </c>
-      <c r="V10" s="67"/>
-      <c r="W10" s="73">
+      <c r="V10" s="58"/>
+      <c r="W10" s="64">
         <v>44370</v>
       </c>
-      <c r="X10" s="63">
+      <c r="X10" s="54">
         <v>44349</v>
       </c>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="63">
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="54">
         <v>44335</v>
       </c>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="63"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="63">
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="63"/>
+      <c r="AN10" s="63"/>
+      <c r="AO10" s="63"/>
+      <c r="AP10" s="54">
         <v>44316</v>
       </c>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="63">
+      <c r="AQ10" s="63"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="54">
         <v>44376</v>
       </c>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="63">
+      <c r="AU10" s="63"/>
+      <c r="AV10" s="54">
         <v>44320</v>
       </c>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="72"/>
-      <c r="BC10" s="72"/>
-      <c r="BD10" s="72"/>
-      <c r="BE10" s="72"/>
-      <c r="BF10" s="72"/>
+      <c r="AW10" s="63"/>
+      <c r="AX10" s="54"/>
+      <c r="AY10" s="63"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="63"/>
+      <c r="BB10" s="63"/>
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="63"/>
+      <c r="BE10" s="63"/>
+      <c r="BF10" s="63"/>
     </row>
     <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="25"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56">
         <v>44323</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="63">
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="54">
         <v>44326</v>
       </c>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="63">
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="54">
         <v>44353</v>
       </c>
-      <c r="V11" s="67"/>
-      <c r="W11" s="73">
+      <c r="V11" s="58"/>
+      <c r="W11" s="64">
         <v>44371</v>
       </c>
-      <c r="X11" s="63">
+      <c r="X11" s="54">
         <v>44350</v>
       </c>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="63">
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="54">
         <v>44342</v>
       </c>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="70"/>
-      <c r="AK11" s="70"/>
-      <c r="AL11" s="63"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="70"/>
-      <c r="AO11" s="70"/>
-      <c r="AP11" s="63">
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="54">
         <v>44340</v>
       </c>
-      <c r="AQ11" s="70"/>
-      <c r="AR11" s="70"/>
-      <c r="AS11" s="70"/>
-      <c r="AT11" s="63">
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="54">
         <v>44377</v>
       </c>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="63">
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="54">
         <v>44321</v>
       </c>
-      <c r="AW11" s="70"/>
-      <c r="AX11" s="63"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="70"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="71"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
     </row>
     <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="63">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="54">
         <v>44330</v>
       </c>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="63">
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="54">
         <v>44354</v>
       </c>
-      <c r="V12" s="67"/>
-      <c r="W12" s="73">
+      <c r="V12" s="58"/>
+      <c r="W12" s="64">
         <v>44372</v>
       </c>
-      <c r="X12" s="63">
+      <c r="X12" s="54">
         <v>44351</v>
       </c>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="63">
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="54">
         <v>44349</v>
       </c>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="63">
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="54">
         <v>44341</v>
       </c>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="63">
+      <c r="AQ12" s="63"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="63"/>
+      <c r="AT12" s="63"/>
+      <c r="AU12" s="63"/>
+      <c r="AV12" s="54">
         <v>44322</v>
       </c>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="72"/>
-      <c r="BA12" s="72"/>
-      <c r="BB12" s="72"/>
-      <c r="BC12" s="72"/>
-      <c r="BD12" s="72"/>
-      <c r="BE12" s="72"/>
-      <c r="BF12" s="72"/>
+      <c r="AW12" s="63"/>
+      <c r="AX12" s="54"/>
+      <c r="AY12" s="63"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="63"/>
+      <c r="BF12" s="63"/>
     </row>
     <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="63">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="54">
         <v>44337</v>
       </c>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="63">
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="54">
         <v>44355</v>
       </c>
-      <c r="V13" s="70"/>
-      <c r="W13" s="73">
+      <c r="V13" s="61"/>
+      <c r="W13" s="64">
         <v>44373</v>
       </c>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="63">
+      <c r="X13" s="54"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="54">
         <v>44356</v>
       </c>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="70"/>
-      <c r="AL13" s="70"/>
-      <c r="AM13" s="70"/>
-      <c r="AN13" s="70"/>
-      <c r="AO13" s="70"/>
-      <c r="AP13" s="63">
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="54">
         <v>44342</v>
       </c>
-      <c r="AQ13" s="70"/>
-      <c r="AR13" s="70"/>
-      <c r="AS13" s="70"/>
-      <c r="AT13" s="70"/>
-      <c r="AU13" s="70"/>
-      <c r="AV13" s="63">
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="54">
         <v>44323</v>
       </c>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="70"/>
-      <c r="BD13" s="70"/>
-      <c r="BE13" s="71"/>
-      <c r="BF13" s="71"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="62"/>
+      <c r="BF13" s="62"/>
     </row>
     <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="63">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="54">
         <v>44344</v>
       </c>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="73">
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64">
         <v>44374</v>
       </c>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="63">
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="54">
         <v>44363</v>
       </c>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="63">
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="54">
         <v>44343</v>
       </c>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="63">
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="63"/>
+      <c r="AT14" s="63"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="54">
         <v>44354</v>
       </c>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
-      <c r="BB14" s="72"/>
-      <c r="BC14" s="72"/>
-      <c r="BD14" s="72"/>
-      <c r="BE14" s="72"/>
-      <c r="BF14" s="72"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="63"/>
+      <c r="BE14" s="63"/>
+      <c r="BF14" s="63"/>
     </row>
     <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="63">
+      <c r="C15" s="61"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="54">
         <v>44347</v>
       </c>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="63">
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="54">
         <v>44370</v>
       </c>
-      <c r="AB15" s="70"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="70"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="70"/>
-      <c r="AM15" s="70"/>
-      <c r="AN15" s="70"/>
-      <c r="AO15" s="70"/>
-      <c r="AP15" s="63">
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="54">
         <v>44344</v>
       </c>
-      <c r="AQ15" s="70"/>
-      <c r="AR15" s="70"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="70"/>
-      <c r="AU15" s="70"/>
-      <c r="AV15" s="63">
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="61"/>
+      <c r="AV15" s="54">
         <v>44355</v>
       </c>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="70"/>
-      <c r="BD15" s="70"/>
-      <c r="BE15" s="71"/>
-      <c r="BF15" s="71"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="62"/>
     </row>
     <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="24"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="63">
+      <c r="C16" s="63"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="54">
         <v>44348</v>
       </c>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="63">
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="54">
         <v>44377</v>
       </c>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="63">
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="54">
         <v>44375</v>
       </c>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="63">
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="63"/>
+      <c r="AU16" s="63"/>
+      <c r="AV16" s="54">
         <v>44356</v>
       </c>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
-      <c r="BB16" s="72"/>
-      <c r="BC16" s="72"/>
-      <c r="BD16" s="72"/>
-      <c r="BE16" s="72"/>
-      <c r="BF16" s="72"/>
+      <c r="AW16" s="63"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="63"/>
+      <c r="AZ16" s="63"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
     </row>
     <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="63">
+      <c r="C17" s="61"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="54">
         <v>44349</v>
       </c>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="70"/>
-      <c r="AM17" s="70"/>
-      <c r="AN17" s="70"/>
-      <c r="AO17" s="70"/>
-      <c r="AP17" s="63">
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
+      <c r="AI17" s="61"/>
+      <c r="AJ17" s="61"/>
+      <c r="AK17" s="61"/>
+      <c r="AL17" s="61"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="54">
         <v>44376</v>
       </c>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="70"/>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="63">
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="61"/>
+      <c r="AV17" s="54">
         <v>44357</v>
       </c>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
-      <c r="BC17" s="70"/>
-      <c r="BD17" s="70"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="71"/>
+      <c r="AW17" s="61"/>
+      <c r="AX17" s="61"/>
+      <c r="AY17" s="61"/>
+      <c r="AZ17" s="61"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
+      <c r="BC17" s="61"/>
+      <c r="BD17" s="61"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
     </row>
     <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="63">
+      <c r="C18" s="63"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="54">
         <v>44351</v>
       </c>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72"/>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="63">
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="54">
         <v>44377</v>
       </c>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="63">
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="54">
         <v>44358</v>
       </c>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
-      <c r="BB18" s="72"/>
-      <c r="BC18" s="72"/>
-      <c r="BD18" s="72"/>
-      <c r="BE18" s="72"/>
-      <c r="BF18" s="72"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
+      <c r="BC18" s="63"/>
+      <c r="BD18" s="63"/>
+      <c r="BE18" s="63"/>
+      <c r="BF18" s="63"/>
     </row>
     <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="25"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="63">
+      <c r="C19" s="61"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="54">
         <v>44358</v>
       </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="63"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="70"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="70"/>
-      <c r="AM19" s="70"/>
-      <c r="AN19" s="70"/>
-      <c r="AO19" s="70"/>
-      <c r="AP19" s="70"/>
-      <c r="AQ19" s="70"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="70"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="70"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
-      <c r="BC19" s="70"/>
-      <c r="BD19" s="70"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="71"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="61"/>
+      <c r="AK19" s="61"/>
+      <c r="AL19" s="61"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
+      <c r="AO19" s="61"/>
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="61"/>
+      <c r="AV19" s="61"/>
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="61"/>
+      <c r="BB19" s="61"/>
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
     </row>
     <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="63">
+      <c r="C20" s="63"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="54">
         <v>44365</v>
       </c>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="63"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="72"/>
-      <c r="AM20" s="72"/>
-      <c r="AN20" s="72"/>
-      <c r="AO20" s="72"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="72"/>
-      <c r="BA20" s="72"/>
-      <c r="BB20" s="72"/>
-      <c r="BC20" s="72"/>
-      <c r="BD20" s="72"/>
-      <c r="BE20" s="72"/>
-      <c r="BF20" s="72"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+      <c r="AX20" s="63"/>
+      <c r="AY20" s="63"/>
+      <c r="AZ20" s="63"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
     </row>
     <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="25"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="63">
+      <c r="C21" s="61"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="54">
         <v>44372</v>
       </c>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="63"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="70"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="70"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="70"/>
-      <c r="AO21" s="70"/>
-      <c r="AP21" s="70"/>
-      <c r="AQ21" s="70"/>
-      <c r="AR21" s="70"/>
-      <c r="AS21" s="70"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="70"/>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="70"/>
-      <c r="BD21" s="70"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="71"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="62"/>
+      <c r="BF21" s="62"/>
     </row>
     <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
@@ -6015,10 +6215,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="81"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="33"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
@@ -6045,7 +6245,7 @@
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="74">
+      <c r="B4" s="65">
         <v>44301</v>
       </c>
       <c r="C4" s="34"/>
@@ -6054,7 +6254,7 @@
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
-      <c r="B5" s="75">
+      <c r="B5" s="66">
         <v>44347</v>
       </c>
       <c r="C5" s="34"/>
@@ -6063,7 +6263,7 @@
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
-      <c r="B6" s="75">
+      <c r="B6" s="66">
         <v>44364</v>
       </c>
       <c r="C6" s="34"/>
@@ -6112,10 +6312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV97"/>
+  <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6124,21 +6324,21 @@
     <col min="2" max="2" width="23.5" style="40" customWidth="1"/>
     <col min="3" max="3" width="11" style="40" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="23" style="61" customWidth="1"/>
+    <col min="5" max="5" width="23" style="52" customWidth="1"/>
     <col min="6" max="256" width="11" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="90"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="41"/>
@@ -6147,22 +6347,16 @@
       <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
@@ -6170,25 +6364,29 @@
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="49">
-        <v>10</v>
-      </c>
-      <c r="E3" s="59">
-        <v>50</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+    <row r="3" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>127</v>
+      </c>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
@@ -6196,23 +6394,31 @@
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="53">
+    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="76">
-        <v>24</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="81">
+        <v>10</v>
+      </c>
+      <c r="E4" s="82">
+        <v>50</v>
+      </c>
+      <c r="F4" s="82">
+        <v>8</v>
+      </c>
+      <c r="G4" s="82">
+        <v>60</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>128</v>
+      </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
@@ -6221,22 +6427,28 @@
       <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="53">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="45">
         <v>0</v>
       </c>
-      <c r="E5" s="77">
-        <v>7</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="E5" s="67">
+        <v>24</v>
+      </c>
+      <c r="F5" s="68">
+        <v>12</v>
+      </c>
+      <c r="G5" s="94">
+        <v>60</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>128</v>
+      </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
@@ -6245,22 +6457,28 @@
       <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="53">
+      <c r="A6" s="46"/>
+      <c r="B6" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="45">
         <v>0</v>
       </c>
-      <c r="E6" s="77">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="E6" s="68">
+        <v>7</v>
+      </c>
+      <c r="F6" s="68">
+        <v>12</v>
+      </c>
+      <c r="G6" s="96">
+        <v>60</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
@@ -6269,22 +6487,28 @@
       <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="53">
+      <c r="A7" s="47"/>
+      <c r="B7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="45">
         <v>0</v>
       </c>
-      <c r="E7" s="77">
-        <v>15</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="E7" s="68">
+        <v>4</v>
+      </c>
+      <c r="F7" s="68">
+        <v>12</v>
+      </c>
+      <c r="G7" s="96">
+        <v>60</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
@@ -6293,22 +6517,28 @@
       <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="53">
+      <c r="A8" s="48"/>
+      <c r="B8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="45">
         <v>0</v>
       </c>
-      <c r="E8" s="77">
-        <v>8</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="E8" s="68">
+        <v>15</v>
+      </c>
+      <c r="F8" s="68">
+        <v>12</v>
+      </c>
+      <c r="G8" s="96">
+        <v>60</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -6317,22 +6547,28 @@
       <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="53">
+      <c r="A9" s="48"/>
+      <c r="B9" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="45">
         <v>0</v>
       </c>
-      <c r="E9" s="77">
-        <v>4</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="E9" s="68">
+        <v>8</v>
+      </c>
+      <c r="F9" s="68">
+        <v>12</v>
+      </c>
+      <c r="G9" s="96">
+        <v>60</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
@@ -6341,22 +6577,28 @@
       <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="53">
+      <c r="A10" s="48"/>
+      <c r="B10" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="45">
         <v>0</v>
       </c>
-      <c r="E10" s="77">
-        <v>30</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="68">
+        <v>4</v>
+      </c>
+      <c r="F10" s="68">
+        <v>12</v>
+      </c>
+      <c r="G10" s="96">
+        <v>60</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
@@ -6365,22 +6607,28 @@
       <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="53">
+      <c r="A11" s="48"/>
+      <c r="B11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="45">
         <v>0</v>
       </c>
-      <c r="E11" s="77">
-        <v>41</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="68">
+        <v>30</v>
+      </c>
+      <c r="F11" s="68">
+        <v>12</v>
+      </c>
+      <c r="G11" s="96">
+        <v>60</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
@@ -6389,22 +6637,28 @@
       <c r="N11" s="34"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="52" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="E12" s="68">
+        <v>41</v>
+      </c>
+      <c r="F12" s="68">
         <v>12</v>
       </c>
-      <c r="D12" s="53">
-        <v>0</v>
-      </c>
-      <c r="E12" s="77">
-        <v>25</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="G12" s="96">
+        <v>60</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
@@ -6413,22 +6667,28 @@
       <c r="N12" s="34"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="53">
+      <c r="A13" s="48"/>
+      <c r="B13" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="45">
         <v>0</v>
       </c>
-      <c r="E13" s="77">
-        <v>23</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="68">
+        <v>25</v>
+      </c>
+      <c r="F13" s="68">
+        <v>12</v>
+      </c>
+      <c r="G13" s="96">
+        <v>60</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
@@ -6437,22 +6697,28 @@
       <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="53">
+      <c r="A14" s="48"/>
+      <c r="B14" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="45">
         <v>0</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="68">
+        <v>23</v>
+      </c>
+      <c r="F14" s="68">
+        <v>12</v>
+      </c>
+      <c r="G14" s="96">
         <v>60</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -6461,22 +6727,28 @@
       <c r="N14" s="34"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="53">
+      <c r="A15" s="48"/>
+      <c r="B15" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="45">
         <v>0</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="68">
         <v>60</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
+      <c r="F15" s="68">
+        <v>12</v>
+      </c>
+      <c r="G15" s="96">
+        <v>60</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
@@ -6485,22 +6757,28 @@
       <c r="N15" s="34"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="53">
+      <c r="A16" s="48"/>
+      <c r="B16" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="45">
         <v>0</v>
       </c>
-      <c r="E16" s="77">
-        <v>118</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
+      <c r="E16" s="68">
+        <v>60</v>
+      </c>
+      <c r="F16" s="68">
+        <v>12</v>
+      </c>
+      <c r="G16" s="96">
+        <v>60</v>
+      </c>
+      <c r="H16" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -6509,22 +6787,28 @@
       <c r="N16" s="34"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="53">
+      <c r="A17" s="48"/>
+      <c r="B17" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="45">
         <v>0</v>
       </c>
-      <c r="E17" s="77">
-        <v>170</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="E17" s="68">
+        <v>118</v>
+      </c>
+      <c r="F17" s="68">
+        <v>12</v>
+      </c>
+      <c r="G17" s="96">
+        <v>60</v>
+      </c>
+      <c r="H17" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
@@ -6533,22 +6817,28 @@
       <c r="N17" s="34"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="53">
+      <c r="A18" s="48"/>
+      <c r="B18" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="45">
         <v>0</v>
       </c>
-      <c r="E18" s="77">
-        <v>117</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="E18" s="68">
+        <v>170</v>
+      </c>
+      <c r="F18" s="68">
+        <v>12</v>
+      </c>
+      <c r="G18" s="96">
+        <v>60</v>
+      </c>
+      <c r="H18" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
@@ -6557,22 +6847,28 @@
       <c r="N18" s="34"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="53">
+      <c r="A19" s="48"/>
+      <c r="B19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="45">
         <v>0</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="68">
+        <v>117</v>
+      </c>
+      <c r="F19" s="68">
+        <v>12</v>
+      </c>
+      <c r="G19" s="96">
         <v>60</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="H19" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
@@ -6581,22 +6877,28 @@
       <c r="N19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="53">
+      <c r="A20" s="48"/>
+      <c r="B20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="45">
         <v>0</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="68">
         <v>60</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="F20" s="68">
+        <v>12</v>
+      </c>
+      <c r="G20" s="96">
+        <v>60</v>
+      </c>
+      <c r="H20" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
@@ -6605,22 +6907,28 @@
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="53">
+      <c r="A21" s="48"/>
+      <c r="B21" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="45">
         <v>0</v>
       </c>
-      <c r="E21" s="77">
-        <v>50</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="E21" s="68">
+        <v>60</v>
+      </c>
+      <c r="F21" s="68">
+        <v>12</v>
+      </c>
+      <c r="G21" s="96">
+        <v>60</v>
+      </c>
+      <c r="H21" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
@@ -6629,22 +6937,28 @@
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="53">
+      <c r="A22" s="48"/>
+      <c r="B22" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="45">
         <v>0</v>
       </c>
-      <c r="E22" s="77">
-        <v>57</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="E22" s="68">
+        <v>50</v>
+      </c>
+      <c r="F22" s="68">
+        <v>12</v>
+      </c>
+      <c r="G22" s="96">
+        <v>60</v>
+      </c>
+      <c r="H22" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
@@ -6653,22 +6967,28 @@
       <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="53">
+      <c r="A23" s="48"/>
+      <c r="B23" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="45">
         <v>0</v>
       </c>
-      <c r="E23" s="77">
-        <v>26</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="E23" s="68">
+        <v>57</v>
+      </c>
+      <c r="F23" s="68">
+        <v>12</v>
+      </c>
+      <c r="G23" s="96">
+        <v>60</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
@@ -6677,22 +6997,28 @@
       <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="53">
+      <c r="A24" s="48"/>
+      <c r="B24" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="45">
         <v>0</v>
       </c>
-      <c r="E24" s="77">
-        <v>83</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="E24" s="68">
+        <v>26</v>
+      </c>
+      <c r="F24" s="68">
+        <v>12</v>
+      </c>
+      <c r="G24" s="96">
+        <v>60</v>
+      </c>
+      <c r="H24" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
@@ -6701,22 +7027,28 @@
       <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="53">
+      <c r="A25" s="48"/>
+      <c r="B25" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="45">
         <v>0</v>
       </c>
-      <c r="E25" s="77">
-        <v>37</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="E25" s="68">
+        <v>83</v>
+      </c>
+      <c r="F25" s="68">
+        <v>12</v>
+      </c>
+      <c r="G25" s="96">
+        <v>60</v>
+      </c>
+      <c r="H25" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
@@ -6725,22 +7057,28 @@
       <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="53">
+      <c r="A26" s="48"/>
+      <c r="B26" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="45">
         <v>0</v>
       </c>
-      <c r="E26" s="77">
-        <v>25</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="E26" s="68">
+        <v>37</v>
+      </c>
+      <c r="F26" s="68">
+        <v>12</v>
+      </c>
+      <c r="G26" s="96">
+        <v>60</v>
+      </c>
+      <c r="H26" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
@@ -6749,22 +7087,28 @@
       <c r="N26" s="34"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="53">
+      <c r="A27" s="48"/>
+      <c r="B27" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="45">
         <v>0</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="68">
+        <v>25</v>
+      </c>
+      <c r="F27" s="68">
+        <v>12</v>
+      </c>
+      <c r="G27" s="96">
         <v>60</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="H27" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
@@ -6773,22 +7117,28 @@
       <c r="N27" s="34"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="53">
+      <c r="A28" s="48"/>
+      <c r="B28" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="45">
         <v>0</v>
       </c>
-      <c r="E28" s="77">
-        <v>39</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="E28" s="68">
+        <v>60</v>
+      </c>
+      <c r="F28" s="68">
+        <v>12</v>
+      </c>
+      <c r="G28" s="96">
+        <v>60</v>
+      </c>
+      <c r="H28" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
@@ -6797,22 +7147,28 @@
       <c r="N28" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="53">
+      <c r="A29" s="48"/>
+      <c r="B29" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="45">
         <v>0</v>
       </c>
-      <c r="E29" s="77">
-        <v>30</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="E29" s="68">
+        <v>39</v>
+      </c>
+      <c r="F29" s="68">
+        <v>12</v>
+      </c>
+      <c r="G29" s="96">
+        <v>60</v>
+      </c>
+      <c r="H29" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
@@ -6821,22 +7177,28 @@
       <c r="N29" s="34"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="52" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="45">
+        <v>0</v>
+      </c>
+      <c r="E30" s="68">
         <v>30</v>
       </c>
-      <c r="D30" s="53">
-        <v>0</v>
-      </c>
-      <c r="E30" s="77">
-        <v>25</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="F30" s="68">
+        <v>12</v>
+      </c>
+      <c r="G30" s="96">
+        <v>60</v>
+      </c>
+      <c r="H30" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
@@ -6845,22 +7207,28 @@
       <c r="N30" s="34"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="53">
+      <c r="A31" s="48"/>
+      <c r="B31" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="45">
         <v>0</v>
       </c>
-      <c r="E31" s="77">
-        <v>10</v>
-      </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="E31" s="68">
+        <v>25</v>
+      </c>
+      <c r="F31" s="68">
+        <v>12</v>
+      </c>
+      <c r="G31" s="96">
+        <v>60</v>
+      </c>
+      <c r="H31" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
@@ -6869,22 +7237,28 @@
       <c r="N31" s="34"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="53">
+      <c r="A32" s="48"/>
+      <c r="B32" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="45">
         <v>0</v>
       </c>
-      <c r="E32" s="77">
-        <v>5</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+      <c r="E32" s="68">
+        <v>10</v>
+      </c>
+      <c r="F32" s="68">
+        <v>12</v>
+      </c>
+      <c r="G32" s="96">
+        <v>60</v>
+      </c>
+      <c r="H32" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
@@ -6893,22 +7267,28 @@
       <c r="N32" s="34"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="53">
+      <c r="A33" s="48"/>
+      <c r="B33" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="45">
         <v>0</v>
       </c>
-      <c r="E33" s="77">
-        <v>19</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="E33" s="68">
+        <v>5</v>
+      </c>
+      <c r="F33" s="68">
+        <v>12</v>
+      </c>
+      <c r="G33" s="96">
+        <v>60</v>
+      </c>
+      <c r="H33" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
@@ -6917,22 +7297,28 @@
       <c r="N33" s="34"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="53">
+      <c r="A34" s="48"/>
+      <c r="B34" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="45">
         <v>0</v>
       </c>
-      <c r="E34" s="77">
-        <v>2</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="E34" s="68">
+        <v>19</v>
+      </c>
+      <c r="F34" s="68">
+        <v>12</v>
+      </c>
+      <c r="G34" s="96">
+        <v>60</v>
+      </c>
+      <c r="H34" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
@@ -6941,22 +7327,28 @@
       <c r="N34" s="34"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="53">
+      <c r="A35" s="48"/>
+      <c r="B35" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="45">
         <v>0</v>
       </c>
-      <c r="E35" s="77">
-        <v>0</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="E35" s="68">
+        <v>2</v>
+      </c>
+      <c r="F35" s="68">
+        <v>12</v>
+      </c>
+      <c r="G35" s="96">
+        <v>60</v>
+      </c>
+      <c r="H35" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
@@ -6965,22 +7357,28 @@
       <c r="N35" s="34"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="53">
+      <c r="A36" s="48"/>
+      <c r="B36" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="45">
         <v>0</v>
       </c>
-      <c r="E36" s="77">
-        <v>3</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
+      <c r="E36" s="68">
+        <v>0</v>
+      </c>
+      <c r="F36" s="68">
+        <v>12</v>
+      </c>
+      <c r="G36" s="96">
+        <v>60</v>
+      </c>
+      <c r="H36" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
@@ -6989,22 +7387,28 @@
       <c r="N36" s="34"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="53">
+      <c r="A37" s="48"/>
+      <c r="B37" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="45">
         <v>0</v>
       </c>
-      <c r="E37" s="77">
-        <v>51</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
+      <c r="E37" s="68">
+        <v>3</v>
+      </c>
+      <c r="F37" s="68">
+        <v>12</v>
+      </c>
+      <c r="G37" s="96">
+        <v>60</v>
+      </c>
+      <c r="H37" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
@@ -7013,22 +7417,28 @@
       <c r="N37" s="34"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="53">
+      <c r="A38" s="48"/>
+      <c r="B38" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="45">
         <v>0</v>
       </c>
-      <c r="E38" s="77">
+      <c r="E38" s="68">
+        <v>51</v>
+      </c>
+      <c r="F38" s="68">
         <v>12</v>
       </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="G38" s="96">
+        <v>60</v>
+      </c>
+      <c r="H38" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
@@ -7037,22 +7447,28 @@
       <c r="N38" s="34"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="53">
+      <c r="A39" s="48"/>
+      <c r="B39" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="45">
         <v>0</v>
       </c>
-      <c r="E39" s="77">
-        <v>5</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
+      <c r="E39" s="68">
+        <v>12</v>
+      </c>
+      <c r="F39" s="68">
+        <v>12</v>
+      </c>
+      <c r="G39" s="96">
+        <v>60</v>
+      </c>
+      <c r="H39" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -7061,22 +7477,28 @@
       <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="53">
+      <c r="A40" s="48"/>
+      <c r="B40" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="45">
         <v>0</v>
       </c>
-      <c r="E40" s="77">
-        <v>2</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
+      <c r="E40" s="68">
+        <v>5</v>
+      </c>
+      <c r="F40" s="68">
+        <v>12</v>
+      </c>
+      <c r="G40" s="96">
+        <v>60</v>
+      </c>
+      <c r="H40" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I40" s="34"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
@@ -7085,22 +7507,28 @@
       <c r="N40" s="34"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="53">
+      <c r="A41" s="48"/>
+      <c r="B41" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="45">
         <v>0</v>
       </c>
-      <c r="E41" s="77">
-        <v>55</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="E41" s="68">
+        <v>2</v>
+      </c>
+      <c r="F41" s="68">
+        <v>12</v>
+      </c>
+      <c r="G41" s="96">
+        <v>60</v>
+      </c>
+      <c r="H41" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
@@ -7109,22 +7537,28 @@
       <c r="N41" s="34"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="53">
+      <c r="A42" s="48"/>
+      <c r="B42" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="45">
         <v>0</v>
       </c>
-      <c r="E42" s="77">
-        <v>53</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
+      <c r="E42" s="68">
+        <v>55</v>
+      </c>
+      <c r="F42" s="68">
+        <v>12</v>
+      </c>
+      <c r="G42" s="96">
+        <v>60</v>
+      </c>
+      <c r="H42" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I42" s="34"/>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
@@ -7133,22 +7567,28 @@
       <c r="N42" s="34"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="53">
+      <c r="A43" s="48"/>
+      <c r="B43" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="45">
         <v>0</v>
       </c>
-      <c r="E43" s="77">
-        <v>35</v>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
+      <c r="E43" s="68">
+        <v>53</v>
+      </c>
+      <c r="F43" s="68">
+        <v>12</v>
+      </c>
+      <c r="G43" s="96">
+        <v>60</v>
+      </c>
+      <c r="H43" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
       <c r="K43" s="34"/>
@@ -7157,22 +7597,28 @@
       <c r="N43" s="34"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="53">
+      <c r="A44" s="48"/>
+      <c r="B44" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="45">
         <v>0</v>
       </c>
-      <c r="E44" s="77">
-        <v>28</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
+      <c r="E44" s="68">
+        <v>35</v>
+      </c>
+      <c r="F44" s="68">
+        <v>12</v>
+      </c>
+      <c r="G44" s="96">
+        <v>60</v>
+      </c>
+      <c r="H44" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I44" s="34"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
@@ -7181,22 +7627,28 @@
       <c r="N44" s="34"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="53">
+      <c r="A45" s="48"/>
+      <c r="B45" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="45">
         <v>0</v>
       </c>
-      <c r="E45" s="77">
-        <v>3</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
+      <c r="E45" s="68">
+        <v>28</v>
+      </c>
+      <c r="F45" s="68">
+        <v>12</v>
+      </c>
+      <c r="G45" s="96">
+        <v>60</v>
+      </c>
+      <c r="H45" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I45" s="34"/>
       <c r="J45" s="34"/>
       <c r="K45" s="34"/>
@@ -7205,22 +7657,28 @@
       <c r="N45" s="34"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="53">
+      <c r="A46" s="48"/>
+      <c r="B46" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="45">
         <v>0</v>
       </c>
-      <c r="E46" s="77">
-        <v>33</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
+      <c r="E46" s="68">
+        <v>3</v>
+      </c>
+      <c r="F46" s="68">
+        <v>12</v>
+      </c>
+      <c r="G46" s="96">
+        <v>60</v>
+      </c>
+      <c r="H46" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I46" s="34"/>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
@@ -7229,22 +7687,28 @@
       <c r="N46" s="34"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="53">
+      <c r="A47" s="48"/>
+      <c r="B47" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="45">
         <v>0</v>
       </c>
-      <c r="E47" s="77">
-        <v>90</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="E47" s="68">
+        <v>33</v>
+      </c>
+      <c r="F47" s="68">
+        <v>12</v>
+      </c>
+      <c r="G47" s="96">
+        <v>60</v>
+      </c>
+      <c r="H47" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I47" s="34"/>
       <c r="J47" s="34"/>
       <c r="K47" s="34"/>
@@ -7253,22 +7717,28 @@
       <c r="N47" s="34"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="53">
+      <c r="A48" s="48"/>
+      <c r="B48" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="45">
         <v>0</v>
       </c>
-      <c r="E48" s="77">
-        <v>32</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
+      <c r="E48" s="68">
+        <v>90</v>
+      </c>
+      <c r="F48" s="68">
+        <v>12</v>
+      </c>
+      <c r="G48" s="96">
+        <v>60</v>
+      </c>
+      <c r="H48" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I48" s="34"/>
       <c r="J48" s="34"/>
       <c r="K48" s="34"/>
@@ -7277,22 +7747,28 @@
       <c r="N48" s="34"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="53">
+      <c r="A49" s="48"/>
+      <c r="B49" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="45">
         <v>0</v>
       </c>
-      <c r="E49" s="77">
-        <v>35</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
+      <c r="E49" s="68">
+        <v>32</v>
+      </c>
+      <c r="F49" s="68">
+        <v>12</v>
+      </c>
+      <c r="G49" s="96">
+        <v>60</v>
+      </c>
+      <c r="H49" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I49" s="34"/>
       <c r="J49" s="34"/>
       <c r="K49" s="34"/>
@@ -7301,22 +7777,28 @@
       <c r="N49" s="34"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="53">
+      <c r="A50" s="48"/>
+      <c r="B50" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="45">
         <v>0</v>
       </c>
-      <c r="E50" s="77">
-        <v>8</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
+      <c r="E50" s="68">
+        <v>35</v>
+      </c>
+      <c r="F50" s="68">
+        <v>12</v>
+      </c>
+      <c r="G50" s="96">
+        <v>60</v>
+      </c>
+      <c r="H50" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
@@ -7325,22 +7807,28 @@
       <c r="N50" s="34"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
-      <c r="B51" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="53">
+      <c r="A51" s="48"/>
+      <c r="B51" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="45">
         <v>0</v>
       </c>
-      <c r="E51" s="77">
-        <v>16</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
+      <c r="E51" s="68">
+        <v>8</v>
+      </c>
+      <c r="F51" s="68">
+        <v>12</v>
+      </c>
+      <c r="G51" s="96">
+        <v>60</v>
+      </c>
+      <c r="H51" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
@@ -7349,22 +7837,28 @@
       <c r="N51" s="34"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="53">
+      <c r="A52" s="48"/>
+      <c r="B52" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="45">
         <v>0</v>
       </c>
-      <c r="E52" s="77">
-        <v>15</v>
-      </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
+      <c r="E52" s="68">
+        <v>16</v>
+      </c>
+      <c r="F52" s="68">
+        <v>12</v>
+      </c>
+      <c r="G52" s="96">
+        <v>60</v>
+      </c>
+      <c r="H52" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
@@ -7373,22 +7867,28 @@
       <c r="N52" s="34"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="53">
+      <c r="A53" s="48"/>
+      <c r="B53" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="45">
         <v>0</v>
       </c>
-      <c r="E53" s="77">
-        <v>1</v>
-      </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="E53" s="68">
+        <v>15</v>
+      </c>
+      <c r="F53" s="68">
+        <v>12</v>
+      </c>
+      <c r="G53" s="96">
+        <v>60</v>
+      </c>
+      <c r="H53" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I53" s="34"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
@@ -7397,22 +7897,28 @@
       <c r="N53" s="34"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="53">
+      <c r="A54" s="48"/>
+      <c r="B54" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="45">
         <v>0</v>
       </c>
-      <c r="E54" s="77">
-        <v>10</v>
-      </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="E54" s="68">
+        <v>1</v>
+      </c>
+      <c r="F54" s="68">
+        <v>12</v>
+      </c>
+      <c r="G54" s="96">
+        <v>60</v>
+      </c>
+      <c r="H54" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
@@ -7421,22 +7927,28 @@
       <c r="N54" s="34"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
-      <c r="B55" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="53">
+      <c r="A55" s="48"/>
+      <c r="B55" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="45">
         <v>0</v>
       </c>
-      <c r="E55" s="77">
-        <v>166</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="E55" s="68">
+        <v>10</v>
+      </c>
+      <c r="F55" s="68">
+        <v>12</v>
+      </c>
+      <c r="G55" s="96">
+        <v>60</v>
+      </c>
+      <c r="H55" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
@@ -7445,22 +7957,28 @@
       <c r="N55" s="34"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
-      <c r="B56" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="53">
+      <c r="A56" s="48"/>
+      <c r="B56" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="45">
         <v>0</v>
       </c>
-      <c r="E56" s="77">
-        <v>3</v>
-      </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
+      <c r="E56" s="68">
+        <v>166</v>
+      </c>
+      <c r="F56" s="68">
+        <v>12</v>
+      </c>
+      <c r="G56" s="96">
+        <v>60</v>
+      </c>
+      <c r="H56" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
@@ -7469,22 +7987,28 @@
       <c r="N56" s="34"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
-      <c r="B57" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="53">
+      <c r="A57" s="48"/>
+      <c r="B57" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="45">
         <v>0</v>
       </c>
-      <c r="E57" s="77">
-        <v>6</v>
-      </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
+      <c r="E57" s="68">
+        <v>3</v>
+      </c>
+      <c r="F57" s="68">
+        <v>12</v>
+      </c>
+      <c r="G57" s="96">
+        <v>60</v>
+      </c>
+      <c r="H57" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I57" s="34"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
@@ -7493,22 +8017,28 @@
       <c r="N57" s="34"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
-      <c r="B58" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="53">
+      <c r="A58" s="48"/>
+      <c r="B58" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="45">
         <v>0</v>
       </c>
-      <c r="E58" s="77">
-        <v>25</v>
-      </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
+      <c r="E58" s="68">
+        <v>6</v>
+      </c>
+      <c r="F58" s="68">
+        <v>12</v>
+      </c>
+      <c r="G58" s="96">
+        <v>60</v>
+      </c>
+      <c r="H58" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I58" s="34"/>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
@@ -7517,22 +8047,28 @@
       <c r="N58" s="34"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="77">
+      <c r="A59" s="48"/>
+      <c r="B59" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="45">
         <v>0</v>
       </c>
-      <c r="E59" s="77">
-        <v>120</v>
-      </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
+      <c r="E59" s="68">
+        <v>25</v>
+      </c>
+      <c r="F59" s="68">
+        <v>12</v>
+      </c>
+      <c r="G59" s="96">
+        <v>60</v>
+      </c>
+      <c r="H59" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I59" s="34"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
@@ -7541,14 +8077,28 @@
       <c r="N59" s="34"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="68">
+        <v>0</v>
+      </c>
+      <c r="E60" s="68">
+        <v>120</v>
+      </c>
+      <c r="F60" s="68">
+        <v>12</v>
+      </c>
+      <c r="G60" s="96">
+        <v>60</v>
+      </c>
+      <c r="H60" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="I60" s="34"/>
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
@@ -7557,11 +8107,11 @@
       <c r="N60" s="34"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="33"/>
       <c r="C61" s="34"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="60"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
@@ -7573,11 +8123,11 @@
       <c r="N61" s="34"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="33"/>
       <c r="C62" s="34"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="60"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
@@ -7589,11 +8139,11 @@
       <c r="N62" s="34"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="33"/>
       <c r="C63" s="34"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="60"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
@@ -7605,11 +8155,11 @@
       <c r="N63" s="34"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="33"/>
       <c r="C64" s="34"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="60"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
@@ -7621,11 +8171,11 @@
       <c r="N64" s="34"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="33"/>
       <c r="C65" s="34"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="60"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
@@ -7637,11 +8187,11 @@
       <c r="N65" s="34"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="33"/>
       <c r="C66" s="34"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="60"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
@@ -7653,11 +8203,11 @@
       <c r="N66" s="34"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="56"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="33"/>
       <c r="C67" s="34"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="60"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
@@ -7669,11 +8219,11 @@
       <c r="N67" s="34"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="33"/>
       <c r="C68" s="34"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="60"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
@@ -7685,11 +8235,11 @@
       <c r="N68" s="34"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="56"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="33"/>
       <c r="C69" s="34"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="60"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
@@ -7701,11 +8251,11 @@
       <c r="N69" s="34"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="56"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="33"/>
       <c r="C70" s="34"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="60"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
@@ -7717,11 +8267,11 @@
       <c r="N70" s="34"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="33"/>
       <c r="C71" s="34"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="60"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
@@ -7733,11 +8283,11 @@
       <c r="N71" s="34"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="56"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="33"/>
       <c r="C72" s="34"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="60"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
@@ -7749,11 +8299,11 @@
       <c r="N72" s="34"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="56"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="33"/>
       <c r="C73" s="34"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="60"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
@@ -7765,11 +8315,11 @@
       <c r="N73" s="34"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="56"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="33"/>
       <c r="C74" s="34"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="60"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
@@ -7781,11 +8331,11 @@
       <c r="N74" s="34"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="56"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="33"/>
       <c r="C75" s="34"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="60"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
@@ -7797,11 +8347,11 @@
       <c r="N75" s="34"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="56"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="33"/>
       <c r="C76" s="34"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="60"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
@@ -7813,11 +8363,11 @@
       <c r="N76" s="34"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="56"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="33"/>
       <c r="C77" s="34"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="60"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
@@ -7829,11 +8379,11 @@
       <c r="N77" s="34"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="33"/>
       <c r="C78" s="34"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="60"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
@@ -7845,11 +8395,11 @@
       <c r="N78" s="34"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="56"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="33"/>
       <c r="C79" s="34"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="60"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
@@ -7861,11 +8411,11 @@
       <c r="N79" s="34"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="56"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="33"/>
       <c r="C80" s="34"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="60"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
@@ -7877,11 +8427,11 @@
       <c r="N80" s="34"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="56"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="33"/>
       <c r="C81" s="34"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="60"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
@@ -7893,11 +8443,11 @@
       <c r="N81" s="34"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="56"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="33"/>
       <c r="C82" s="34"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="60"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="51"/>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
@@ -7909,11 +8459,11 @@
       <c r="N82" s="34"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="56"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="33"/>
       <c r="C83" s="34"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="60"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
@@ -7925,11 +8475,11 @@
       <c r="N83" s="34"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="33"/>
       <c r="C84" s="34"/>
-      <c r="D84" s="53"/>
-      <c r="E84" s="60"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="34"/>
@@ -7941,11 +8491,11 @@
       <c r="N84" s="34"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="56"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="33"/>
       <c r="C85" s="34"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="60"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
       <c r="H85" s="34"/>
@@ -7957,11 +8507,11 @@
       <c r="N85" s="34"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="33"/>
       <c r="C86" s="34"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="60"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
@@ -7973,11 +8523,11 @@
       <c r="N86" s="34"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="56"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="33"/>
       <c r="C87" s="34"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="60"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="51"/>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
@@ -7989,11 +8539,11 @@
       <c r="N87" s="34"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="56"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="33"/>
       <c r="C88" s="34"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="60"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="51"/>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
@@ -8005,11 +8555,11 @@
       <c r="N88" s="34"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="33"/>
       <c r="C89" s="34"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="60"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
       <c r="H89" s="34"/>
@@ -8021,11 +8571,11 @@
       <c r="N89" s="34"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="56"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="33"/>
       <c r="C90" s="34"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="60"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
@@ -8037,11 +8587,11 @@
       <c r="N90" s="34"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="56"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="33"/>
       <c r="C91" s="34"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="60"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="51"/>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
@@ -8053,11 +8603,11 @@
       <c r="N91" s="34"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="56"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="33"/>
       <c r="C92" s="34"/>
-      <c r="D92" s="53"/>
-      <c r="E92" s="60"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="51"/>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
@@ -8069,11 +8619,11 @@
       <c r="N92" s="34"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="56"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="33"/>
       <c r="C93" s="34"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="60"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="51"/>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
       <c r="H93" s="34"/>
@@ -8085,11 +8635,11 @@
       <c r="N93" s="34"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="56"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="33"/>
       <c r="C94" s="34"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="60"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="51"/>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
       <c r="H94" s="34"/>
@@ -8101,11 +8651,11 @@
       <c r="N94" s="34"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="56"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="33"/>
       <c r="C95" s="34"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="60"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="51"/>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
       <c r="H95" s="34"/>
@@ -8117,11 +8667,11 @@
       <c r="N95" s="34"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="56"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="33"/>
       <c r="C96" s="34"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="60"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="51"/>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
       <c r="H96" s="34"/>
@@ -8133,11 +8683,11 @@
       <c r="N96" s="34"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="58"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="33"/>
       <c r="C97" s="34"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="60"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="51"/>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
       <c r="H97" s="34"/>
@@ -8148,9 +8698,26 @@
       <c r="M97" s="34"/>
       <c r="N97" s="34"/>
     </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="50"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
